--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_100ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_100ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
@@ -6602,28 +6602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>10542.26127786857</v>
+        <v>10760.8801053102</v>
       </c>
       <c r="AB2" t="n">
-        <v>14424.38697212366</v>
+        <v>14723.51089661128</v>
       </c>
       <c r="AC2" t="n">
-        <v>13047.74372425789</v>
+        <v>13318.31968121547</v>
       </c>
       <c r="AD2" t="n">
-        <v>10542261.27786857</v>
+        <v>10760880.1053102</v>
       </c>
       <c r="AE2" t="n">
-        <v>14424386.97212366</v>
+        <v>14723510.89661128</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.976117822208981e-07</v>
+        <v>8.412374074506761e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.71805555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>13047743.72425789</v>
+        <v>13318319.68121547</v>
       </c>
     </row>
     <row r="3">
@@ -6708,28 +6708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3501.503162284538</v>
+        <v>3615.891896334335</v>
       </c>
       <c r="AB3" t="n">
-        <v>4790.911102055172</v>
+        <v>4947.422814456897</v>
       </c>
       <c r="AC3" t="n">
-        <v>4333.673270560807</v>
+        <v>4475.247724796475</v>
       </c>
       <c r="AD3" t="n">
-        <v>3501503.162284538</v>
+        <v>3615891.896334335</v>
       </c>
       <c r="AE3" t="n">
-        <v>4790911.102055172</v>
+        <v>4947422.814456897</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.440181303874029e-07</v>
+        <v>1.595909488013288e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.4625</v>
       </c>
       <c r="AH3" t="n">
-        <v>4333673.270560808</v>
+        <v>4475247.724796475</v>
       </c>
     </row>
     <row r="4">
@@ -6814,28 +6814,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2692.149276133281</v>
+        <v>2785.794382628488</v>
       </c>
       <c r="AB4" t="n">
-        <v>3683.517408849516</v>
+        <v>3811.64677488679</v>
       </c>
       <c r="AC4" t="n">
-        <v>3331.967677197933</v>
+        <v>3447.868556371298</v>
       </c>
       <c r="AD4" t="n">
-        <v>2692149.276133281</v>
+        <v>2785794.382628488</v>
       </c>
       <c r="AE4" t="n">
-        <v>3683517.408849515</v>
+        <v>3811646.77488679</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.109888724461036e-06</v>
+        <v>1.876321957163513e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.25555555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>3331967.677197933</v>
+        <v>3447868.556371298</v>
       </c>
     </row>
     <row r="5">
@@ -6920,28 +6920,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2369.466721709839</v>
+        <v>2463.111738696494</v>
       </c>
       <c r="AB5" t="n">
-        <v>3242.008902137744</v>
+        <v>3370.13814570547</v>
       </c>
       <c r="AC5" t="n">
-        <v>2932.596122705667</v>
+        <v>3048.496891097807</v>
       </c>
       <c r="AD5" t="n">
-        <v>2369466.721709839</v>
+        <v>2463111.738696494</v>
       </c>
       <c r="AE5" t="n">
-        <v>3242008.902137744</v>
+        <v>3370138.14570547</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.198586456384315e-06</v>
+        <v>2.02626987382432e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.90555555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>2932596.122705667</v>
+        <v>3048496.891097807</v>
       </c>
     </row>
     <row r="6">
@@ -7026,28 +7026,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2207.29532489614</v>
+        <v>2290.525947186766</v>
       </c>
       <c r="AB6" t="n">
-        <v>3020.118842520141</v>
+        <v>3133.99865181409</v>
       </c>
       <c r="AC6" t="n">
-        <v>2731.882938953323</v>
+        <v>2834.894219079568</v>
       </c>
       <c r="AD6" t="n">
-        <v>2207295.32489614</v>
+        <v>2290525.947186766</v>
       </c>
       <c r="AE6" t="n">
-        <v>3020118.842520141</v>
+        <v>3133998.65181409</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.253584885553848e-06</v>
+        <v>2.119247447148536e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.16388888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>2731882.938953322</v>
+        <v>2834894.219079568</v>
       </c>
     </row>
     <row r="7">
@@ -7132,28 +7132,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2092.839533770537</v>
+        <v>2176.155407407183</v>
       </c>
       <c r="AB7" t="n">
-        <v>2863.515379668784</v>
+        <v>2977.511833615376</v>
       </c>
       <c r="AC7" t="n">
-        <v>2590.225490802272</v>
+        <v>2693.342283179229</v>
       </c>
       <c r="AD7" t="n">
-        <v>2092839.533770537</v>
+        <v>2176155.407407183</v>
       </c>
       <c r="AE7" t="n">
-        <v>2863515.379668784</v>
+        <v>2977511.833615376</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.291514836705251e-06</v>
+        <v>2.183369911510066e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.6875</v>
       </c>
       <c r="AH7" t="n">
-        <v>2590225.490802272</v>
+        <v>2693342.283179229</v>
       </c>
     </row>
     <row r="8">
@@ -7238,28 +7238,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2021.161269333716</v>
+        <v>2104.306550769771</v>
       </c>
       <c r="AB8" t="n">
-        <v>2765.442016044478</v>
+        <v>2879.205058216222</v>
       </c>
       <c r="AC8" t="n">
-        <v>2501.512111355439</v>
+        <v>2604.417768449744</v>
       </c>
       <c r="AD8" t="n">
-        <v>2021161.269333716</v>
+        <v>2104306.550769771</v>
       </c>
       <c r="AE8" t="n">
-        <v>2765442.016044478</v>
+        <v>2879205.058216223</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.318649340221254e-06</v>
+        <v>2.229242136014852e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.36527777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>2501512.111355439</v>
+        <v>2604417.768449745</v>
       </c>
     </row>
     <row r="9">
@@ -7344,28 +7344,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1967.273277633031</v>
+        <v>2040.174756573648</v>
       </c>
       <c r="AB9" t="n">
-        <v>2691.710088429193</v>
+        <v>2791.457108102008</v>
       </c>
       <c r="AC9" t="n">
-        <v>2434.817055428346</v>
+        <v>2525.04435953941</v>
       </c>
       <c r="AD9" t="n">
-        <v>1967273.277633031</v>
+        <v>2040174.756573648</v>
       </c>
       <c r="AE9" t="n">
-        <v>2691710.088429193</v>
+        <v>2791457.108102008</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.339073160072009e-06</v>
+        <v>2.263769616824906e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.13194444444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>2434817.055428346</v>
+        <v>2525044.35953941</v>
       </c>
     </row>
     <row r="10">
@@ -7450,28 +7450,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1910.890673851193</v>
+        <v>1994.121206633268</v>
       </c>
       <c r="AB10" t="n">
-        <v>2614.564922509956</v>
+        <v>2728.444609334351</v>
       </c>
       <c r="AC10" t="n">
-        <v>2365.034515870522</v>
+        <v>2468.04568521554</v>
       </c>
       <c r="AD10" t="n">
-        <v>1910890.673851193</v>
+        <v>1994121.206633268</v>
       </c>
       <c r="AE10" t="n">
-        <v>2614564.922509957</v>
+        <v>2728444.609334351</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.356433406945151e-06</v>
+        <v>2.293117975513452e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.9375</v>
       </c>
       <c r="AH10" t="n">
-        <v>2365034.515870522</v>
+        <v>2468045.68521554</v>
       </c>
     </row>
     <row r="11">
@@ -7556,28 +7556,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1877.335367704373</v>
+        <v>1960.565900486448</v>
       </c>
       <c r="AB11" t="n">
-        <v>2568.653072284249</v>
+        <v>2682.532759108642</v>
       </c>
       <c r="AC11" t="n">
-        <v>2323.504428192669</v>
+        <v>2426.515597537687</v>
       </c>
       <c r="AD11" t="n">
-        <v>1877335.367704373</v>
+        <v>1960565.900486448</v>
       </c>
       <c r="AE11" t="n">
-        <v>2568653.072284249</v>
+        <v>2682532.759108643</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.36883358328311e-06</v>
+        <v>2.314081088862414e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.80277777777778</v>
       </c>
       <c r="AH11" t="n">
-        <v>2323504.42819267</v>
+        <v>2426515.597537688</v>
       </c>
     </row>
     <row r="12">
@@ -7662,28 +7662,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1845.399486637633</v>
+        <v>1928.630019419708</v>
       </c>
       <c r="AB12" t="n">
-        <v>2524.956990897099</v>
+        <v>2638.836677721492</v>
       </c>
       <c r="AC12" t="n">
-        <v>2283.978639485274</v>
+        <v>2386.989808830291</v>
       </c>
       <c r="AD12" t="n">
-        <v>1845399.486637633</v>
+        <v>1928630.019419708</v>
       </c>
       <c r="AE12" t="n">
-        <v>2524956.990897099</v>
+        <v>2638836.677721492</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.38021256862853e-06</v>
+        <v>2.333317828170873e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.67916666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>2283978.639485274</v>
+        <v>2386989.808830291</v>
       </c>
     </row>
     <row r="13">
@@ -7768,28 +7768,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1819.573534589744</v>
+        <v>1902.804067371819</v>
       </c>
       <c r="AB13" t="n">
-        <v>2489.620783944584</v>
+        <v>2603.500470768978</v>
       </c>
       <c r="AC13" t="n">
-        <v>2252.014870529628</v>
+        <v>2355.026039874647</v>
       </c>
       <c r="AD13" t="n">
-        <v>1819573.534589744</v>
+        <v>1902804.067371819</v>
       </c>
       <c r="AE13" t="n">
-        <v>2489620.783944584</v>
+        <v>2603500.470768978</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.389111518706359e-06</v>
+        <v>2.348361944809539e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.58611111111111</v>
       </c>
       <c r="AH13" t="n">
-        <v>2252014.870529628</v>
+        <v>2355026.039874647</v>
       </c>
     </row>
     <row r="14">
@@ -7874,28 +7874,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1794.936979228675</v>
+        <v>1867.923709515313</v>
       </c>
       <c r="AB14" t="n">
-        <v>2455.911962011457</v>
+        <v>2555.775626336922</v>
       </c>
       <c r="AC14" t="n">
-        <v>2221.52317125117</v>
+        <v>2311.855987612946</v>
       </c>
       <c r="AD14" t="n">
-        <v>1794936.979228675</v>
+        <v>1867923.709515313</v>
       </c>
       <c r="AE14" t="n">
-        <v>2455911.962011457</v>
+        <v>2555775.626336922</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.397135162219156e-06</v>
+        <v>2.361926312270632e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.50277777777778</v>
       </c>
       <c r="AH14" t="n">
-        <v>2221523.17125117</v>
+        <v>2311855.987612946</v>
       </c>
     </row>
     <row r="15">
@@ -7980,28 +7980,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1775.957237978091</v>
+        <v>1848.773376064136</v>
       </c>
       <c r="AB15" t="n">
-        <v>2429.943042705318</v>
+        <v>2529.573295255937</v>
       </c>
       <c r="AC15" t="n">
-        <v>2198.032689156003</v>
+        <v>2288.154370235127</v>
       </c>
       <c r="AD15" t="n">
-        <v>1775957.237978091</v>
+        <v>1848773.376064136</v>
       </c>
       <c r="AE15" t="n">
-        <v>2429943.042705318</v>
+        <v>2529573.295255937</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.402678770464361e-06</v>
+        <v>2.371298057061932e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.44583333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>2198032.689156003</v>
+        <v>2288154.370235127</v>
       </c>
     </row>
     <row r="16">
@@ -8086,28 +8086,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1752.725154681501</v>
+        <v>1825.541292767547</v>
       </c>
       <c r="AB16" t="n">
-        <v>2398.155881411746</v>
+        <v>2497.786133962364</v>
       </c>
       <c r="AC16" t="n">
-        <v>2169.279249922727</v>
+        <v>2259.400931001852</v>
       </c>
       <c r="AD16" t="n">
-        <v>1752725.154681501</v>
+        <v>1825541.292767547</v>
       </c>
       <c r="AE16" t="n">
-        <v>2398155.881411746</v>
+        <v>2497786.133962364</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.40968122298462e-06</v>
+        <v>2.383136050482522e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.37222222222222</v>
       </c>
       <c r="AH16" t="n">
-        <v>2169279.249922727</v>
+        <v>2259400.931001852</v>
       </c>
     </row>
     <row r="17">
@@ -8192,28 +8192,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1734.990814637035</v>
+        <v>1807.80695272308</v>
       </c>
       <c r="AB17" t="n">
-        <v>2373.890974979042</v>
+        <v>2473.52122752966</v>
       </c>
       <c r="AC17" t="n">
-        <v>2147.330152103951</v>
+        <v>2237.451833183076</v>
       </c>
       <c r="AD17" t="n">
-        <v>1734990.814637035</v>
+        <v>1807806.95272308</v>
       </c>
       <c r="AE17" t="n">
-        <v>2373890.974979042</v>
+        <v>2473521.22752966</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.414349524664792e-06</v>
+        <v>2.391028046096249e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>14.325</v>
       </c>
       <c r="AH17" t="n">
-        <v>2147330.152103951</v>
+        <v>2237451.833183076</v>
       </c>
     </row>
     <row r="18">
@@ -8298,28 +8298,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1716.480110022128</v>
+        <v>1789.296248108174</v>
       </c>
       <c r="AB18" t="n">
-        <v>2348.563812290275</v>
+        <v>2448.194064840893</v>
       </c>
       <c r="AC18" t="n">
-        <v>2124.420178275303</v>
+        <v>2214.541859354428</v>
       </c>
       <c r="AD18" t="n">
-        <v>1716480.110022128</v>
+        <v>1789296.248108174</v>
       </c>
       <c r="AE18" t="n">
-        <v>2348563.812290275</v>
+        <v>2448194.064840893</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.419309595199976e-06</v>
+        <v>2.399413291435833e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>14.27638888888889</v>
       </c>
       <c r="AH18" t="n">
-        <v>2124420.178275303</v>
+        <v>2214541.859354428</v>
       </c>
     </row>
     <row r="19">
@@ -8404,28 +8404,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1701.086741204196</v>
+        <v>1773.902879290241</v>
       </c>
       <c r="AB19" t="n">
-        <v>2327.501925966076</v>
+        <v>2427.132178516694</v>
       </c>
       <c r="AC19" t="n">
-        <v>2105.368408821343</v>
+        <v>2195.490089900468</v>
       </c>
       <c r="AD19" t="n">
-        <v>1701086.741204196</v>
+        <v>1773902.879290241</v>
       </c>
       <c r="AE19" t="n">
-        <v>2327501.925966076</v>
+        <v>2427132.178516694</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.422810821460105e-06</v>
+        <v>2.405332288146128e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>14.24027777777778</v>
       </c>
       <c r="AH19" t="n">
-        <v>2105368.408821343</v>
+        <v>2195490.089900468</v>
       </c>
     </row>
     <row r="20">
@@ -8510,28 +8510,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1685.62270907194</v>
+        <v>1758.438847157985</v>
       </c>
       <c r="AB20" t="n">
-        <v>2306.343354977774</v>
+        <v>2405.973607528392</v>
       </c>
       <c r="AC20" t="n">
-        <v>2086.229182151924</v>
+        <v>2176.350863231049</v>
       </c>
       <c r="AD20" t="n">
-        <v>1685622.70907194</v>
+        <v>1758438.847157985</v>
       </c>
       <c r="AE20" t="n">
-        <v>2306343.354977774</v>
+        <v>2405973.607528392</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.425874394437719e-06</v>
+        <v>2.410511410267636e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>14.20972222222222</v>
       </c>
       <c r="AH20" t="n">
-        <v>2086229.182151924</v>
+        <v>2176350.863231048</v>
       </c>
     </row>
     <row r="21">
@@ -8616,28 +8616,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1670.689155148919</v>
+        <v>1743.505293234965</v>
       </c>
       <c r="AB21" t="n">
-        <v>2285.910607678396</v>
+        <v>2385.540860229014</v>
       </c>
       <c r="AC21" t="n">
-        <v>2067.746507577257</v>
+        <v>2157.868188656382</v>
       </c>
       <c r="AD21" t="n">
-        <v>1670689.155148919</v>
+        <v>1743505.293234965</v>
       </c>
       <c r="AE21" t="n">
-        <v>2285910.607678396</v>
+        <v>2385540.860229014</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.429667389552859e-06</v>
+        <v>2.416923656703789e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>15</v>
+        <v>14.17361111111111</v>
       </c>
       <c r="AH21" t="n">
-        <v>2067746.507577257</v>
+        <v>2157868.188656382</v>
       </c>
     </row>
     <row r="22">
@@ -8722,28 +8722,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1653.992984702202</v>
+        <v>1726.809122788247</v>
       </c>
       <c r="AB22" t="n">
-        <v>2263.066170690143</v>
+        <v>2362.696423240761</v>
       </c>
       <c r="AC22" t="n">
-        <v>2047.082311592794</v>
+        <v>2137.203992671919</v>
       </c>
       <c r="AD22" t="n">
-        <v>1653992.984702202</v>
+        <v>1726809.122788247</v>
       </c>
       <c r="AE22" t="n">
-        <v>2263066.170690143</v>
+        <v>2362696.423240761</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.433314500240494e-06</v>
+        <v>2.423089278277013e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>15</v>
+        <v>14.13611111111111</v>
       </c>
       <c r="AH22" t="n">
-        <v>2047082.311592794</v>
+        <v>2137203.992671919</v>
       </c>
     </row>
     <row r="23">
@@ -8828,28 +8828,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1641.635858511736</v>
+        <v>1714.451996597781</v>
       </c>
       <c r="AB23" t="n">
-        <v>2246.158605478415</v>
+        <v>2345.788858029033</v>
       </c>
       <c r="AC23" t="n">
-        <v>2031.788380674957</v>
+        <v>2121.910061754081</v>
       </c>
       <c r="AD23" t="n">
-        <v>1641635.858511736</v>
+        <v>1714451.996597781</v>
       </c>
       <c r="AE23" t="n">
-        <v>2246158.605478415</v>
+        <v>2345788.858029033</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.435356882225569e-06</v>
+        <v>2.426542026358019e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>15</v>
+        <v>14.11527777777778</v>
       </c>
       <c r="AH23" t="n">
-        <v>2031788.380674957</v>
+        <v>2121910.061754081</v>
       </c>
     </row>
     <row r="24">
@@ -8934,28 +8934,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>1626.569459031945</v>
+        <v>1699.38559711799</v>
       </c>
       <c r="AB24" t="n">
-        <v>2225.54409302753</v>
+        <v>2325.174345578148</v>
       </c>
       <c r="AC24" t="n">
-        <v>2013.141288359735</v>
+        <v>2103.262969438859</v>
       </c>
       <c r="AD24" t="n">
-        <v>1626569.459031945</v>
+        <v>1699385.59711799</v>
       </c>
       <c r="AE24" t="n">
-        <v>2225544.09302753</v>
+        <v>2325174.345578148</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.437836917493161e-06</v>
+        <v>2.430734649027811e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>15</v>
+        <v>14.09166666666667</v>
       </c>
       <c r="AH24" t="n">
-        <v>2013141.288359735</v>
+        <v>2103262.969438859</v>
       </c>
     </row>
     <row r="25">
@@ -9040,28 +9040,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>1613.401696690227</v>
+        <v>1686.217834776272</v>
       </c>
       <c r="AB25" t="n">
-        <v>2207.527379670917</v>
+        <v>2307.157632221535</v>
       </c>
       <c r="AC25" t="n">
-        <v>1996.844064839261</v>
+        <v>2086.965745918385</v>
       </c>
       <c r="AD25" t="n">
-        <v>1613401.696690227</v>
+        <v>1686217.834776272</v>
       </c>
       <c r="AE25" t="n">
-        <v>2207527.379670917</v>
+        <v>2307157.632221535</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.440025183905742e-06</v>
+        <v>2.434434021971745e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>15</v>
+        <v>14.07083333333333</v>
       </c>
       <c r="AH25" t="n">
-        <v>1996844.064839261</v>
+        <v>2086965.745918385</v>
       </c>
     </row>
     <row r="26">
@@ -9146,28 +9146,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>1609.703379996766</v>
+        <v>1682.519518082811</v>
       </c>
       <c r="AB26" t="n">
-        <v>2202.467179612706</v>
+        <v>2302.097432163324</v>
       </c>
       <c r="AC26" t="n">
-        <v>1992.26680317257</v>
+        <v>2082.388484251695</v>
       </c>
       <c r="AD26" t="n">
-        <v>1609703.379996766</v>
+        <v>1682519.518082811</v>
       </c>
       <c r="AE26" t="n">
-        <v>2202467.179612706</v>
+        <v>2302097.432163324</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.441192259325785e-06</v>
+        <v>2.436407020875177e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>15</v>
+        <v>14.05833333333333</v>
       </c>
       <c r="AH26" t="n">
-        <v>1992266.80317257</v>
+        <v>2082388.484251695</v>
       </c>
     </row>
     <row r="27">
@@ -9252,28 +9252,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>1615.659069365409</v>
+        <v>1688.475207451455</v>
       </c>
       <c r="AB27" t="n">
-        <v>2210.616016553355</v>
+        <v>2310.246269103973</v>
       </c>
       <c r="AC27" t="n">
-        <v>1999.637926552568</v>
+        <v>2089.759607631693</v>
       </c>
       <c r="AD27" t="n">
-        <v>1615659.069365409</v>
+        <v>1688475.207451455</v>
       </c>
       <c r="AE27" t="n">
-        <v>2210616.016553355</v>
+        <v>2310246.269103973</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.441046374898279e-06</v>
+        <v>2.436160396012248e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>15</v>
+        <v>14.05972222222222</v>
       </c>
       <c r="AH27" t="n">
-        <v>1999637.926552568</v>
+        <v>2089759.607631693</v>
       </c>
     </row>
   </sheetData>
@@ -9549,28 +9549,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6363.807374500074</v>
+        <v>6525.171208655814</v>
       </c>
       <c r="AB2" t="n">
-        <v>8707.242001158424</v>
+        <v>8928.027117920259</v>
       </c>
       <c r="AC2" t="n">
-        <v>7876.235045258435</v>
+        <v>8075.948740350373</v>
       </c>
       <c r="AD2" t="n">
-        <v>6363807.374500073</v>
+        <v>6525171.208655814</v>
       </c>
       <c r="AE2" t="n">
-        <v>8707242.001158424</v>
+        <v>8928027.117920259</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.546710017763942e-07</v>
+        <v>1.133753353736309e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.01805555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>7876235.045258435</v>
+        <v>8075948.740350373</v>
       </c>
     </row>
     <row r="3">
@@ -9655,28 +9655,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2751.384226483529</v>
+        <v>2852.289904922131</v>
       </c>
       <c r="AB3" t="n">
-        <v>3764.565281180304</v>
+        <v>3902.628882064359</v>
       </c>
       <c r="AC3" t="n">
-        <v>3405.280454344871</v>
+        <v>3530.167458934026</v>
       </c>
       <c r="AD3" t="n">
-        <v>2751384.226483529</v>
+        <v>2852289.904922131</v>
       </c>
       <c r="AE3" t="n">
-        <v>3764565.281180304</v>
+        <v>3902628.882064358</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.066368210823421e-06</v>
+        <v>1.846726878169838e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.65555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>3405280.454344871</v>
+        <v>3530167.458934026</v>
       </c>
     </row>
     <row r="4">
@@ -9761,28 +9761,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2213.02183316456</v>
+        <v>2303.666351558709</v>
       </c>
       <c r="AB4" t="n">
-        <v>3027.954103768708</v>
+        <v>3151.977932789511</v>
       </c>
       <c r="AC4" t="n">
-        <v>2738.970413865184</v>
+        <v>2851.157582712774</v>
       </c>
       <c r="AD4" t="n">
-        <v>2213021.83316456</v>
+        <v>2303666.351558709</v>
       </c>
       <c r="AE4" t="n">
-        <v>3027954.103768708</v>
+        <v>3151977.932789511</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.216529033038154e-06</v>
+        <v>2.10677403975758e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.22916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2738970.413865184</v>
+        <v>2851157.582712774</v>
       </c>
     </row>
     <row r="5">
@@ -9867,28 +9867,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1991.890430627463</v>
+        <v>2072.529722032324</v>
       </c>
       <c r="AB5" t="n">
-        <v>2725.392363188317</v>
+        <v>2835.726599242904</v>
       </c>
       <c r="AC5" t="n">
-        <v>2465.284741157829</v>
+        <v>2565.08883257844</v>
       </c>
       <c r="AD5" t="n">
-        <v>1991890.430627463</v>
+        <v>2072529.722032323</v>
       </c>
       <c r="AE5" t="n">
-        <v>2725392.363188317</v>
+        <v>2835726.599242904</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.294552294430131e-06</v>
+        <v>2.241894022210709e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.19166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2465284.741157829</v>
+        <v>2565088.83257844</v>
       </c>
     </row>
     <row r="6">
@@ -9973,28 +9973,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1860.980023822392</v>
+        <v>1941.704566573273</v>
       </c>
       <c r="AB6" t="n">
-        <v>2546.274969238075</v>
+        <v>2656.725849945311</v>
       </c>
       <c r="AC6" t="n">
-        <v>2303.262059893358</v>
+        <v>2403.17166356468</v>
       </c>
       <c r="AD6" t="n">
-        <v>1860980.023822392</v>
+        <v>1941704.566573273</v>
       </c>
       <c r="AE6" t="n">
-        <v>2546274.969238075</v>
+        <v>2656725.849945311</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.343599799173637e-06</v>
+        <v>2.326834049864996e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="AH6" t="n">
-        <v>2303262.059893358</v>
+        <v>2403171.66356468</v>
       </c>
     </row>
     <row r="7">
@@ -10079,28 +10079,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1781.754555318861</v>
+        <v>1862.308505869149</v>
       </c>
       <c r="AB7" t="n">
-        <v>2437.875188050551</v>
+        <v>2548.09265698294</v>
       </c>
       <c r="AC7" t="n">
-        <v>2205.207801682321</v>
+        <v>2304.906270070993</v>
       </c>
       <c r="AD7" t="n">
-        <v>1781754.555318861</v>
+        <v>1862308.505869149</v>
       </c>
       <c r="AE7" t="n">
-        <v>2437875.18805055</v>
+        <v>2548092.65698294</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.37680118700001e-06</v>
+        <v>2.384331914738668e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.225</v>
       </c>
       <c r="AH7" t="n">
-        <v>2205207.801682321</v>
+        <v>2304906.270070993</v>
       </c>
     </row>
     <row r="8">
@@ -10185,28 +10185,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1714.771255536622</v>
+        <v>1795.410457432931</v>
       </c>
       <c r="AB8" t="n">
-        <v>2346.225682193864</v>
+        <v>2456.559795778903</v>
       </c>
       <c r="AC8" t="n">
-        <v>2122.305196033708</v>
+        <v>2222.109176673092</v>
       </c>
       <c r="AD8" t="n">
-        <v>1714771.255536621</v>
+        <v>1795410.457432931</v>
       </c>
       <c r="AE8" t="n">
-        <v>2346225.682193865</v>
+        <v>2456559.795778903</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.400494904676104e-06</v>
+        <v>2.42536448194397e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.96666666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2122305.196033708</v>
+        <v>2222109.176673092</v>
       </c>
     </row>
     <row r="9">
@@ -10291,28 +10291,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1671.2888939149</v>
+        <v>1751.92809581121</v>
       </c>
       <c r="AB9" t="n">
-        <v>2286.731196716619</v>
+        <v>2397.065310301657</v>
       </c>
       <c r="AC9" t="n">
-        <v>2068.488780749376</v>
+        <v>2168.29276138876</v>
       </c>
       <c r="AD9" t="n">
-        <v>1671288.8939149</v>
+        <v>1751928.09581121</v>
       </c>
       <c r="AE9" t="n">
-        <v>2286731.196716619</v>
+        <v>2397065.310301657</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.418001090984555e-06</v>
+        <v>2.45568153796827e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.78194444444445</v>
       </c>
       <c r="AH9" t="n">
-        <v>2068488.780749376</v>
+        <v>2168292.76138876</v>
       </c>
     </row>
     <row r="10">
@@ -10397,28 +10397,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1631.789766073691</v>
+        <v>1712.428967970001</v>
       </c>
       <c r="AB10" t="n">
-        <v>2232.686747425741</v>
+        <v>2343.02086101078</v>
       </c>
       <c r="AC10" t="n">
-        <v>2019.602257846959</v>
+        <v>2119.406238486342</v>
       </c>
       <c r="AD10" t="n">
-        <v>1631789.766073691</v>
+        <v>1712428.967970001</v>
       </c>
       <c r="AE10" t="n">
-        <v>2232686.747425741</v>
+        <v>2343020.86101078</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.432941715506423e-06</v>
+        <v>2.481555577161422e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.62777777777777</v>
       </c>
       <c r="AH10" t="n">
-        <v>2019602.257846958</v>
+        <v>2119406.238486342</v>
       </c>
     </row>
     <row r="11">
@@ -10503,28 +10503,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1601.085498150048</v>
+        <v>1671.804813911641</v>
       </c>
       <c r="AB11" t="n">
-        <v>2190.675813475912</v>
+        <v>2287.437101216942</v>
       </c>
       <c r="AC11" t="n">
-        <v>1981.600788470585</v>
+        <v>2069.127314714932</v>
       </c>
       <c r="AD11" t="n">
-        <v>1601085.498150048</v>
+        <v>1671804.813911641</v>
       </c>
       <c r="AE11" t="n">
-        <v>2190675.813475912</v>
+        <v>2287437.101216942</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.44395853964881e-06</v>
+        <v>2.500634414142231e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.51666666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1981600.788470585</v>
+        <v>2069127.314714932</v>
       </c>
     </row>
     <row r="12">
@@ -10609,28 +10609,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1572.124375831722</v>
+        <v>1642.673099392722</v>
       </c>
       <c r="AB12" t="n">
-        <v>2151.049928245436</v>
+        <v>2247.577804211619</v>
       </c>
       <c r="AC12" t="n">
-        <v>1945.756742111226</v>
+        <v>2033.072133072921</v>
       </c>
       <c r="AD12" t="n">
-        <v>1572124.375831722</v>
+        <v>1642673.099392722</v>
       </c>
       <c r="AE12" t="n">
-        <v>2151049.928245435</v>
+        <v>2247577.804211618</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.453617125198301e-06</v>
+        <v>2.517361065741845e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.41944444444444</v>
       </c>
       <c r="AH12" t="n">
-        <v>1945756.742111226</v>
+        <v>2033072.133072921</v>
       </c>
     </row>
     <row r="13">
@@ -10715,28 +10715,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1547.664911901655</v>
+        <v>1618.213635462656</v>
       </c>
       <c r="AB13" t="n">
-        <v>2117.583410620927</v>
+        <v>2214.11128658711</v>
       </c>
       <c r="AC13" t="n">
-        <v>1915.484221958248</v>
+        <v>2002.799612919943</v>
       </c>
       <c r="AD13" t="n">
-        <v>1547664.911901655</v>
+        <v>1618213.635462656</v>
       </c>
       <c r="AE13" t="n">
-        <v>2117583.410620927</v>
+        <v>2214111.28658711</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.46116289515884e-06</v>
+        <v>2.530428762304043e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.34583333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1915484.221958248</v>
+        <v>2002799.612919943</v>
       </c>
     </row>
     <row r="14">
@@ -10821,28 +10821,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1522.661873750495</v>
+        <v>1593.210597311495</v>
       </c>
       <c r="AB14" t="n">
-        <v>2083.373150766316</v>
+        <v>2179.901026732498</v>
       </c>
       <c r="AC14" t="n">
-        <v>1884.53894128976</v>
+        <v>1971.854332251454</v>
       </c>
       <c r="AD14" t="n">
-        <v>1522661.873750495</v>
+        <v>1593210.597311495</v>
       </c>
       <c r="AE14" t="n">
-        <v>2083373.150766315</v>
+        <v>2179901.026732498</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.468255918921747e-06</v>
+        <v>2.542712397072509e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.275</v>
       </c>
       <c r="AH14" t="n">
-        <v>1884538.94128976</v>
+        <v>1971854.332251454</v>
       </c>
     </row>
     <row r="15">
@@ -10927,28 +10927,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1499.810937044717</v>
+        <v>1570.359660605717</v>
       </c>
       <c r="AB15" t="n">
-        <v>2052.107491053293</v>
+        <v>2148.635367019475</v>
       </c>
       <c r="AC15" t="n">
-        <v>1856.257232258119</v>
+        <v>1943.572623219814</v>
       </c>
       <c r="AD15" t="n">
-        <v>1499810.937044717</v>
+        <v>1570359.660605717</v>
       </c>
       <c r="AE15" t="n">
-        <v>2052107.491053293</v>
+        <v>2148635.367019475</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.473839788692546e-06</v>
+        <v>2.552382492528536e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.22222222222222</v>
       </c>
       <c r="AH15" t="n">
-        <v>1856257.232258119</v>
+        <v>1943572.623219814</v>
       </c>
     </row>
     <row r="16">
@@ -11033,28 +11033,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1478.30777116559</v>
+        <v>1548.85649472659</v>
       </c>
       <c r="AB16" t="n">
-        <v>2022.685910844744</v>
+        <v>2119.213786810927</v>
       </c>
       <c r="AC16" t="n">
-        <v>1829.643606371227</v>
+        <v>1916.958997332922</v>
       </c>
       <c r="AD16" t="n">
-        <v>1478307.77116559</v>
+        <v>1548856.49472659</v>
       </c>
       <c r="AE16" t="n">
-        <v>2022685.910844744</v>
+        <v>2119213.786810927</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.478970912265713e-06</v>
+        <v>2.56126852619083e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.17222222222222</v>
       </c>
       <c r="AH16" t="n">
-        <v>1829643.606371227</v>
+        <v>1916958.997332922</v>
       </c>
     </row>
     <row r="17">
@@ -11139,28 +11139,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1458.40465209216</v>
+        <v>1528.95337565316</v>
       </c>
       <c r="AB17" t="n">
-        <v>1995.453585264836</v>
+        <v>2091.981461231018</v>
       </c>
       <c r="AC17" t="n">
-        <v>1805.010295723856</v>
+        <v>1892.325686685551</v>
       </c>
       <c r="AD17" t="n">
-        <v>1458404.65209216</v>
+        <v>1528953.375653161</v>
       </c>
       <c r="AE17" t="n">
-        <v>1995453.585264836</v>
+        <v>2091981.461231018</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.483498374242037e-06</v>
+        <v>2.569109144128149e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>14.12916666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>1805010.295723856</v>
+        <v>1892325.686685551</v>
       </c>
     </row>
     <row r="18">
@@ -11245,28 +11245,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1440.261206960085</v>
+        <v>1510.809930521085</v>
       </c>
       <c r="AB18" t="n">
-        <v>1970.628923202822</v>
+        <v>2067.156799169005</v>
       </c>
       <c r="AC18" t="n">
-        <v>1782.554864567409</v>
+        <v>1869.870255529104</v>
       </c>
       <c r="AD18" t="n">
-        <v>1440261.206960085</v>
+        <v>1510809.930521085</v>
       </c>
       <c r="AE18" t="n">
-        <v>1970628.923202822</v>
+        <v>2067156.799169005</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.487271259222306e-06</v>
+        <v>2.575642992409248e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>14.09305555555556</v>
       </c>
       <c r="AH18" t="n">
-        <v>1782554.864567409</v>
+        <v>1869870.255529104</v>
       </c>
     </row>
     <row r="19">
@@ -11351,28 +11351,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1441.194683469729</v>
+        <v>1511.743407030729</v>
       </c>
       <c r="AB19" t="n">
-        <v>1971.906146945394</v>
+        <v>2068.434022911577</v>
       </c>
       <c r="AC19" t="n">
-        <v>1783.710191868585</v>
+        <v>1871.02558283028</v>
       </c>
       <c r="AD19" t="n">
-        <v>1441194.683469729</v>
+        <v>1511743.407030729</v>
       </c>
       <c r="AE19" t="n">
-        <v>1971906.146945394</v>
+        <v>2068434.022911577</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.487724005419939e-06</v>
+        <v>2.57642705420298e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>14.08888888888889</v>
       </c>
       <c r="AH19" t="n">
-        <v>1783710.191868585</v>
+        <v>1871025.58283028</v>
       </c>
     </row>
     <row r="20">
@@ -11457,28 +11457,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1447.409108491861</v>
+        <v>1517.957832052861</v>
       </c>
       <c r="AB20" t="n">
-        <v>1980.408997421758</v>
+        <v>2076.936873387941</v>
       </c>
       <c r="AC20" t="n">
-        <v>1791.40154222931</v>
+        <v>1878.716933191005</v>
       </c>
       <c r="AD20" t="n">
-        <v>1447409.108491861</v>
+        <v>1517957.832052861</v>
       </c>
       <c r="AE20" t="n">
-        <v>1980408.997421758</v>
+        <v>2076936.873387941</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.487874920819149e-06</v>
+        <v>2.576688408134224e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>14.0875</v>
       </c>
       <c r="AH20" t="n">
-        <v>1791401.54222931</v>
+        <v>1878716.933191005</v>
       </c>
     </row>
   </sheetData>
@@ -11754,28 +11754,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2074.964095385201</v>
+        <v>2166.032500166335</v>
       </c>
       <c r="AB2" t="n">
-        <v>2839.057416261284</v>
+        <v>2963.661225337297</v>
       </c>
       <c r="AC2" t="n">
-        <v>2568.101761095416</v>
+        <v>2680.81355751576</v>
       </c>
       <c r="AD2" t="n">
-        <v>2074964.095385201</v>
+        <v>2166032.500166335</v>
       </c>
       <c r="AE2" t="n">
-        <v>2839057.416261284</v>
+        <v>2963661.225337297</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.147643277529564e-06</v>
+        <v>2.171588042120966e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.37916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2568101.761095416</v>
+        <v>2680813.55751576</v>
       </c>
     </row>
     <row r="3">
@@ -11860,28 +11860,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1377.626120894071</v>
+        <v>1450.463794449773</v>
       </c>
       <c r="AB3" t="n">
-        <v>1884.928835182326</v>
+        <v>1984.588553512607</v>
       </c>
       <c r="AC3" t="n">
-        <v>1705.03387266676</v>
+        <v>1795.182207352892</v>
       </c>
       <c r="AD3" t="n">
-        <v>1377626.120894071</v>
+        <v>1450463.794449773</v>
       </c>
       <c r="AE3" t="n">
-        <v>1884928.835182326</v>
+        <v>1984588.553512607</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.440490182830212e-06</v>
+        <v>2.725717404593212e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.2375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1705033.87266676</v>
+        <v>1795182.207352892</v>
       </c>
     </row>
     <row r="4">
@@ -11966,28 +11966,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1202.807444658662</v>
+        <v>1275.559777359792</v>
       </c>
       <c r="AB4" t="n">
-        <v>1645.734209901362</v>
+        <v>1745.277161109445</v>
       </c>
       <c r="AC4" t="n">
-        <v>1488.667646710846</v>
+        <v>1578.710358365039</v>
       </c>
       <c r="AD4" t="n">
-        <v>1202807.444658661</v>
+        <v>1275559.777359792</v>
       </c>
       <c r="AE4" t="n">
-        <v>1645734.209901362</v>
+        <v>1745277.161109445</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.540014346736297e-06</v>
+        <v>2.914038539280445e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.1875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1488667.646710846</v>
+        <v>1578710.358365039</v>
       </c>
     </row>
     <row r="5">
@@ -12072,28 +12072,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1103.184129151256</v>
+        <v>1176.021713198407</v>
       </c>
       <c r="AB5" t="n">
-        <v>1509.425194553638</v>
+        <v>1609.084790414371</v>
       </c>
       <c r="AC5" t="n">
-        <v>1365.367772477004</v>
+        <v>1455.51599638191</v>
       </c>
       <c r="AD5" t="n">
-        <v>1103184.129151256</v>
+        <v>1176021.713198408</v>
       </c>
       <c r="AE5" t="n">
-        <v>1509425.194553638</v>
+        <v>1609084.790414371</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.59137622489426e-06</v>
+        <v>3.011226265303466e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.69722222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>1365367.772477004</v>
+        <v>1455515.99638191</v>
       </c>
     </row>
     <row r="6">
@@ -12178,28 +12178,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1044.677791639725</v>
+        <v>1108.400099582712</v>
       </c>
       <c r="AB6" t="n">
-        <v>1429.374242452917</v>
+        <v>1516.561915410331</v>
       </c>
       <c r="AC6" t="n">
-        <v>1292.956770892559</v>
+        <v>1371.823374711586</v>
       </c>
       <c r="AD6" t="n">
-        <v>1044677.791639726</v>
+        <v>1108400.099582712</v>
       </c>
       <c r="AE6" t="n">
-        <v>1429374.242452917</v>
+        <v>1516561.915410331</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.620172556582823e-06</v>
+        <v>3.065715121532767e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.43611111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>1292956.770892559</v>
+        <v>1371823.374711586</v>
       </c>
     </row>
     <row r="7">
@@ -12284,28 +12284,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1048.172568474582</v>
+        <v>1111.894876417569</v>
       </c>
       <c r="AB7" t="n">
-        <v>1434.15595029704</v>
+        <v>1521.343623254455</v>
       </c>
       <c r="AC7" t="n">
-        <v>1297.282119251208</v>
+        <v>1376.148723070235</v>
       </c>
       <c r="AD7" t="n">
-        <v>1048172.568474582</v>
+        <v>1111894.876417569</v>
       </c>
       <c r="AE7" t="n">
-        <v>1434155.95029704</v>
+        <v>1521343.623254454</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.621519753386966e-06</v>
+        <v>3.068264307789109e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.42361111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>1297282.119251208</v>
+        <v>1376148.723070235</v>
       </c>
     </row>
   </sheetData>
@@ -12581,28 +12581,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3103.348986113827</v>
+        <v>3217.308555461496</v>
       </c>
       <c r="AB2" t="n">
-        <v>4246.138992895818</v>
+        <v>4402.063503218683</v>
       </c>
       <c r="AC2" t="n">
-        <v>3840.893446907186</v>
+        <v>3981.936740806255</v>
       </c>
       <c r="AD2" t="n">
-        <v>3103348.986113827</v>
+        <v>3217308.555461496</v>
       </c>
       <c r="AE2" t="n">
-        <v>4246138.992895818</v>
+        <v>4402063.503218682</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.496995563920913e-07</v>
+        <v>1.730146340954095e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.5625</v>
       </c>
       <c r="AH2" t="n">
-        <v>3840893.446907186</v>
+        <v>3981936.740806255</v>
       </c>
     </row>
     <row r="3">
@@ -12687,28 +12687,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1817.114671777947</v>
+        <v>1902.413756588107</v>
       </c>
       <c r="AB3" t="n">
-        <v>2486.256459368113</v>
+        <v>2602.966430335407</v>
       </c>
       <c r="AC3" t="n">
-        <v>2248.971632368876</v>
+        <v>2354.542967510525</v>
       </c>
       <c r="AD3" t="n">
-        <v>1817114.671777947</v>
+        <v>1902413.756588107</v>
       </c>
       <c r="AE3" t="n">
-        <v>2486256.459368112</v>
+        <v>2602966.430335407</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.29139807362833e-06</v>
+        <v>2.352646831058189e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.32638888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>2248971.632368876</v>
+        <v>2354542.967510525</v>
       </c>
     </row>
     <row r="4">
@@ -12793,28 +12793,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1541.766315734691</v>
+        <v>1627.0653110363</v>
       </c>
       <c r="AB4" t="n">
-        <v>2109.51269111759</v>
+        <v>2226.222539615335</v>
       </c>
       <c r="AC4" t="n">
-        <v>1908.183760596983</v>
+        <v>2013.754984957405</v>
       </c>
       <c r="AD4" t="n">
-        <v>1541766.315734691</v>
+        <v>1627065.3110363</v>
       </c>
       <c r="AE4" t="n">
-        <v>2109512.69111759</v>
+        <v>2226222.539615335</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.411741681537556e-06</v>
+        <v>2.571886749072219e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.85</v>
       </c>
       <c r="AH4" t="n">
-        <v>1908183.760596983</v>
+        <v>2013754.984957405</v>
       </c>
     </row>
     <row r="5">
@@ -12899,28 +12899,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1422.968870652272</v>
+        <v>1498.77132468346</v>
       </c>
       <c r="AB5" t="n">
-        <v>1946.968785782437</v>
+        <v>2050.68504755616</v>
       </c>
       <c r="AC5" t="n">
-        <v>1761.152817455214</v>
+        <v>1854.97054477194</v>
       </c>
       <c r="AD5" t="n">
-        <v>1422968.870652272</v>
+        <v>1498771.32468346</v>
       </c>
       <c r="AE5" t="n">
-        <v>1946968.785782437</v>
+        <v>2050685.04755616</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.47296065209379e-06</v>
+        <v>2.68341441820921e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.19027777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>1761152.817455214</v>
+        <v>1854970.54477194</v>
       </c>
     </row>
     <row r="6">
@@ -13005,28 +13005,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1339.729759504633</v>
+        <v>1415.61746488184</v>
       </c>
       <c r="AB6" t="n">
-        <v>1833.077361659827</v>
+        <v>1936.910268086199</v>
       </c>
       <c r="AC6" t="n">
-        <v>1658.131031003248</v>
+        <v>1752.054270570687</v>
       </c>
       <c r="AD6" t="n">
-        <v>1339729.759504633</v>
+        <v>1415617.46488184</v>
       </c>
       <c r="AE6" t="n">
-        <v>1833077.361659827</v>
+        <v>1936910.268086199</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.509530931873435e-06</v>
+        <v>2.750037525825253e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.82361111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>1658131.031003248</v>
+        <v>1752054.270570687</v>
       </c>
     </row>
     <row r="7">
@@ -13111,28 +13111,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1284.043109349305</v>
+        <v>1359.930814726513</v>
       </c>
       <c r="AB7" t="n">
-        <v>1756.884430195689</v>
+        <v>1860.717336622062</v>
       </c>
       <c r="AC7" t="n">
-        <v>1589.209845980597</v>
+        <v>1683.133085548036</v>
       </c>
       <c r="AD7" t="n">
-        <v>1284043.109349305</v>
+        <v>1359930.814726513</v>
       </c>
       <c r="AE7" t="n">
-        <v>1756884.430195689</v>
+        <v>1860717.336622062</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.535146237974595e-06</v>
+        <v>2.796703050543099e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.575</v>
       </c>
       <c r="AH7" t="n">
-        <v>1589209.845980597</v>
+        <v>1683133.085548036</v>
       </c>
     </row>
     <row r="8">
@@ -13217,28 +13217,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1237.722376215138</v>
+        <v>1304.113540321925</v>
       </c>
       <c r="AB8" t="n">
-        <v>1693.506359595001</v>
+        <v>1784.345679297351</v>
       </c>
       <c r="AC8" t="n">
-        <v>1531.880489486358</v>
+        <v>1614.050232010101</v>
       </c>
       <c r="AD8" t="n">
-        <v>1237722.376215138</v>
+        <v>1304113.540321925</v>
       </c>
       <c r="AE8" t="n">
-        <v>1693506.359595001</v>
+        <v>1784345.679297351</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.553834134249656e-06</v>
+        <v>2.830748339016496e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.4</v>
       </c>
       <c r="AH8" t="n">
-        <v>1531880.489486358</v>
+        <v>1614050.232010101</v>
       </c>
     </row>
     <row r="9">
@@ -13323,28 +13323,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1197.822324171614</v>
+        <v>1264.213488278401</v>
       </c>
       <c r="AB9" t="n">
-        <v>1638.91334812299</v>
+        <v>1729.752667825339</v>
       </c>
       <c r="AC9" t="n">
-        <v>1482.497758407462</v>
+        <v>1564.667500931205</v>
       </c>
       <c r="AD9" t="n">
-        <v>1197822.324171614</v>
+        <v>1264213.488278401</v>
       </c>
       <c r="AE9" t="n">
-        <v>1638913.34812299</v>
+        <v>1729752.667825339</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.568011159010047e-06</v>
+        <v>2.856575799237694e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.26944444444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>1482497.758407462</v>
+        <v>1564667.500931205</v>
       </c>
     </row>
     <row r="10">
@@ -13429,28 +13429,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1188.657495819033</v>
+        <v>1255.04865992582</v>
       </c>
       <c r="AB10" t="n">
-        <v>1626.373625647297</v>
+        <v>1717.212945349647</v>
       </c>
       <c r="AC10" t="n">
-        <v>1471.154809445238</v>
+        <v>1553.324551968981</v>
       </c>
       <c r="AD10" t="n">
-        <v>1188657.495819033</v>
+        <v>1255048.65992582</v>
       </c>
       <c r="AE10" t="n">
-        <v>1626373.625647297</v>
+        <v>1717212.945349646</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.571072107537858e-06</v>
+        <v>2.862152182694543e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.24305555555556</v>
       </c>
       <c r="AH10" t="n">
-        <v>1471154.809445238</v>
+        <v>1553324.551968982</v>
       </c>
     </row>
     <row r="11">
@@ -13535,28 +13535,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1195.409484453058</v>
+        <v>1261.800648559845</v>
       </c>
       <c r="AB11" t="n">
-        <v>1635.611994373086</v>
+        <v>1726.451314075435</v>
       </c>
       <c r="AC11" t="n">
-        <v>1479.511481225969</v>
+        <v>1561.681223749712</v>
       </c>
       <c r="AD11" t="n">
-        <v>1195409.484453058</v>
+        <v>1261800.648559845</v>
       </c>
       <c r="AE11" t="n">
-        <v>1635611.994373085</v>
+        <v>1726451.314075435</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.571072107537858e-06</v>
+        <v>2.862152182694543e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.24166666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1479511.481225969</v>
+        <v>1561681.223749712</v>
       </c>
     </row>
   </sheetData>
@@ -13832,28 +13832,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1487.292429724932</v>
+        <v>1566.431028082517</v>
       </c>
       <c r="AB2" t="n">
-        <v>2034.979117060798</v>
+        <v>2143.260038682198</v>
       </c>
       <c r="AC2" t="n">
-        <v>1840.763566239643</v>
+        <v>1938.710308674725</v>
       </c>
       <c r="AD2" t="n">
-        <v>1487292.429724932</v>
+        <v>1566431.028082517</v>
       </c>
       <c r="AE2" t="n">
-        <v>2034979.117060798</v>
+        <v>2143260.038682198</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.319249237881258e-06</v>
+        <v>2.585303443525847e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.4125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1840763.566239643</v>
+        <v>1938710.308674725</v>
       </c>
     </row>
     <row r="3">
@@ -13938,28 +13938,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1064.8449687593</v>
+        <v>1135.095576295246</v>
       </c>
       <c r="AB3" t="n">
-        <v>1456.96786390098</v>
+        <v>1553.087844369733</v>
       </c>
       <c r="AC3" t="n">
-        <v>1317.91689583751</v>
+        <v>1404.863320275565</v>
       </c>
       <c r="AD3" t="n">
-        <v>1064844.9687593</v>
+        <v>1135095.576295246</v>
       </c>
       <c r="AE3" t="n">
-        <v>1456967.86390098</v>
+        <v>1553087.844369733</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.567778094706031e-06</v>
+        <v>3.072339926788505e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.49305555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>1317916.89583751</v>
+        <v>1404863.320275565</v>
       </c>
     </row>
     <row r="4">
@@ -14044,28 +14044,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>932.8747502599849</v>
+        <v>1003.210609141952</v>
       </c>
       <c r="AB4" t="n">
-        <v>1276.400388835082</v>
+        <v>1372.637013956484</v>
       </c>
       <c r="AC4" t="n">
-        <v>1154.582527163858</v>
+        <v>1241.634463852625</v>
       </c>
       <c r="AD4" t="n">
-        <v>932874.7502599849</v>
+        <v>1003210.609141952</v>
       </c>
       <c r="AE4" t="n">
-        <v>1276400.388835082</v>
+        <v>1372637.013956484</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.650679346032521e-06</v>
+        <v>3.234799668566478e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.71527777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1154582.527163858</v>
+        <v>1241634.463852625</v>
       </c>
     </row>
     <row r="5">
@@ -14150,28 +14150,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>936.044788700421</v>
+        <v>1006.380647582388</v>
       </c>
       <c r="AB5" t="n">
-        <v>1280.737775281512</v>
+        <v>1376.974400402914</v>
       </c>
       <c r="AC5" t="n">
-        <v>1158.505959535401</v>
+        <v>1245.557896224169</v>
       </c>
       <c r="AD5" t="n">
-        <v>936044.788700421</v>
+        <v>1006380.647582388</v>
       </c>
       <c r="AE5" t="n">
-        <v>1280737.775281512</v>
+        <v>1376974.400402914</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.653127906198283e-06</v>
+        <v>3.23959805756414e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.69305555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>1158505.959535401</v>
+        <v>1245557.896224169</v>
       </c>
     </row>
   </sheetData>
@@ -14447,28 +14447,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7176.174646467338</v>
+        <v>7359.166681578487</v>
       </c>
       <c r="AB2" t="n">
-        <v>9818.75874177874</v>
+        <v>10069.13651725665</v>
       </c>
       <c r="AC2" t="n">
-        <v>8881.670188177453</v>
+        <v>9108.152260171155</v>
       </c>
       <c r="AD2" t="n">
-        <v>7176174.646467338</v>
+        <v>7359166.681578486</v>
       </c>
       <c r="AE2" t="n">
-        <v>9818758.741778741</v>
+        <v>10069136.51725665</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.131949217319512e-07</v>
+        <v>1.054990339245062e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.87638888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>8881670.188177453</v>
+        <v>9108152.260171155</v>
       </c>
     </row>
     <row r="3">
@@ -14553,28 +14553,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2931.221897459614</v>
+        <v>3032.893711013755</v>
       </c>
       <c r="AB3" t="n">
-        <v>4010.627116487898</v>
+        <v>4149.738977236528</v>
       </c>
       <c r="AC3" t="n">
-        <v>3627.858493440652</v>
+        <v>3753.69371344415</v>
       </c>
       <c r="AD3" t="n">
-        <v>2931221.897459615</v>
+        <v>3032893.711013755</v>
       </c>
       <c r="AE3" t="n">
-        <v>4010627.116487897</v>
+        <v>4149738.977236527</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.034504700882904e-06</v>
+        <v>1.779845896721486e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.07916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>3627858.493440652</v>
+        <v>3753693.713444151</v>
       </c>
     </row>
     <row r="4">
@@ -14659,28 +14659,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2327.848459206425</v>
+        <v>2419.259225415977</v>
       </c>
       <c r="AB4" t="n">
-        <v>3185.064959312411</v>
+        <v>3310.137202398716</v>
       </c>
       <c r="AC4" t="n">
-        <v>2881.086829862261</v>
+        <v>2994.2223536084</v>
       </c>
       <c r="AD4" t="n">
-        <v>2327848.459206425</v>
+        <v>2419259.225415977</v>
       </c>
       <c r="AE4" t="n">
-        <v>3185064.959312411</v>
+        <v>3310137.202398716</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.188102550789908e-06</v>
+        <v>2.04410811096653e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.48472222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>2881086.829862261</v>
+        <v>2994222.3536084</v>
       </c>
     </row>
     <row r="5">
@@ -14765,28 +14765,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2085.713242368501</v>
+        <v>2167.033642942609</v>
       </c>
       <c r="AB5" t="n">
-        <v>2853.76487338273</v>
+        <v>2965.031033051098</v>
       </c>
       <c r="AC5" t="n">
-        <v>2581.405559151237</v>
+        <v>2682.052632703892</v>
       </c>
       <c r="AD5" t="n">
-        <v>2085713.242368501</v>
+        <v>2167033.642942609</v>
       </c>
       <c r="AE5" t="n">
-        <v>2853764.87338273</v>
+        <v>2965031.033051098</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.268864808774116e-06</v>
+        <v>2.183058058086612e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.36944444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>2581405.559151237</v>
+        <v>2682052.632703892</v>
       </c>
     </row>
     <row r="6">
@@ -14871,28 +14871,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1945.345065646996</v>
+        <v>2026.750717567124</v>
       </c>
       <c r="AB6" t="n">
-        <v>2661.706941385462</v>
+        <v>2773.089745706478</v>
       </c>
       <c r="AC6" t="n">
-        <v>2407.677366628788</v>
+        <v>2508.429952432155</v>
       </c>
       <c r="AD6" t="n">
-        <v>1945345.065646996</v>
+        <v>2026750.717567124</v>
       </c>
       <c r="AE6" t="n">
-        <v>2661706.941385462</v>
+        <v>2773089.745706479</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.319565559619758e-06</v>
+        <v>2.270287747111996e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.74166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2407677.366628788</v>
+        <v>2508429.952432155</v>
       </c>
     </row>
     <row r="7">
@@ -14977,28 +14977,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1861.011236400674</v>
+        <v>1942.24629612021</v>
       </c>
       <c r="AB7" t="n">
-        <v>2546.317675664682</v>
+        <v>2657.467068210852</v>
       </c>
       <c r="AC7" t="n">
-        <v>2303.300690478547</v>
+        <v>2403.842140999263</v>
       </c>
       <c r="AD7" t="n">
-        <v>1861011.236400674</v>
+        <v>1942246.29612021</v>
       </c>
       <c r="AE7" t="n">
-        <v>2546317.675664681</v>
+        <v>2657467.068210852</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.353665179657535e-06</v>
+        <v>2.328955502562696e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.34583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2303300.690478547</v>
+        <v>2403842.140999263</v>
       </c>
     </row>
     <row r="8">
@@ -15083,28 +15083,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1799.86272326103</v>
+        <v>1871.092758199693</v>
       </c>
       <c r="AB8" t="n">
-        <v>2462.651582305014</v>
+        <v>2560.111658555452</v>
       </c>
       <c r="AC8" t="n">
-        <v>2227.619571643027</v>
+        <v>2315.778195002199</v>
       </c>
       <c r="AD8" t="n">
-        <v>1799862.72326103</v>
+        <v>1871092.758199693</v>
       </c>
       <c r="AE8" t="n">
-        <v>2462651.582305014</v>
+        <v>2560111.658555452</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.378641655737836e-06</v>
+        <v>2.371927060283166e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.06805555555555</v>
       </c>
       <c r="AH8" t="n">
-        <v>2227619.571643027</v>
+        <v>2315778.195002199</v>
       </c>
     </row>
     <row r="9">
@@ -15189,28 +15189,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1743.490458337745</v>
+        <v>1824.810769403302</v>
       </c>
       <c r="AB9" t="n">
-        <v>2385.520562468169</v>
+        <v>2496.786599666988</v>
       </c>
       <c r="AC9" t="n">
-        <v>2157.849828085344</v>
+        <v>2258.496790856772</v>
       </c>
       <c r="AD9" t="n">
-        <v>1743490.458337745</v>
+        <v>1824810.769403302</v>
       </c>
       <c r="AE9" t="n">
-        <v>2385520.562468169</v>
+        <v>2496786.599666988</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.397037503389795e-06</v>
+        <v>2.403576770460518e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.86805555555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>2157849.828085344</v>
+        <v>2258496.790856772</v>
       </c>
     </row>
     <row r="10">
@@ -15295,28 +15295,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1705.054424462952</v>
+        <v>1786.374735528509</v>
       </c>
       <c r="AB10" t="n">
-        <v>2332.930685242538</v>
+        <v>2444.196722441357</v>
       </c>
       <c r="AC10" t="n">
-        <v>2110.279054931771</v>
+        <v>2210.926017703199</v>
       </c>
       <c r="AD10" t="n">
-        <v>1705054.424462952</v>
+        <v>1786374.735528509</v>
       </c>
       <c r="AE10" t="n">
-        <v>2332930.685242538</v>
+        <v>2444196.722441357</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.41154479787955e-06</v>
+        <v>2.428536297998755e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.71527777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>2110279.054931771</v>
+        <v>2210926.017703199</v>
       </c>
     </row>
     <row r="11">
@@ -15401,28 +15401,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1672.035741349692</v>
+        <v>1753.356052415249</v>
       </c>
       <c r="AB11" t="n">
-        <v>2287.753066325484</v>
+        <v>2399.019103524303</v>
       </c>
       <c r="AC11" t="n">
-        <v>2069.413124556974</v>
+        <v>2170.060087328402</v>
       </c>
       <c r="AD11" t="n">
-        <v>1672035.741349692</v>
+        <v>1753356.052415249</v>
       </c>
       <c r="AE11" t="n">
-        <v>2287753.066325484</v>
+        <v>2399019.103524303</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.423958256051197e-06</v>
+        <v>2.449893419500545e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.5875</v>
       </c>
       <c r="AH11" t="n">
-        <v>2069413.124556974</v>
+        <v>2170060.087328402</v>
       </c>
     </row>
     <row r="12">
@@ -15507,28 +15507,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1642.996832311988</v>
+        <v>1714.14152639608</v>
       </c>
       <c r="AB12" t="n">
-        <v>2248.020749873845</v>
+        <v>2345.364059002086</v>
       </c>
       <c r="AC12" t="n">
-        <v>2033.472804622824</v>
+        <v>2121.525804950058</v>
       </c>
       <c r="AD12" t="n">
-        <v>1642996.832311988</v>
+        <v>1714141.52639608</v>
       </c>
       <c r="AE12" t="n">
-        <v>2248020.749873845</v>
+        <v>2345364.059002086</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.433679638956704e-06</v>
+        <v>2.466618876098333e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.48888888888889</v>
       </c>
       <c r="AH12" t="n">
-        <v>2033472.804622824</v>
+        <v>2121525.804950058</v>
       </c>
     </row>
     <row r="13">
@@ -15613,28 +15613,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1615.602108044821</v>
+        <v>1686.746802128913</v>
       </c>
       <c r="AB13" t="n">
-        <v>2210.53807956157</v>
+        <v>2307.881388689811</v>
       </c>
       <c r="AC13" t="n">
-        <v>1999.567427757893</v>
+        <v>2087.620428085127</v>
       </c>
       <c r="AD13" t="n">
-        <v>1615602.108044821</v>
+        <v>1686746.802128913</v>
       </c>
       <c r="AE13" t="n">
-        <v>2210538.07956157</v>
+        <v>2307881.38868981</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.442653223177171e-06</v>
+        <v>2.482057759111675e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.39861111111111</v>
       </c>
       <c r="AH13" t="n">
-        <v>1999567.427757893</v>
+        <v>2087620.428085127</v>
       </c>
     </row>
     <row r="14">
@@ -15719,28 +15719,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1593.315786902029</v>
+        <v>1664.460480986121</v>
       </c>
       <c r="AB14" t="n">
-        <v>2180.044951770904</v>
+        <v>2277.388260899145</v>
       </c>
       <c r="AC14" t="n">
-        <v>1971.984521286195</v>
+        <v>2060.037521613429</v>
       </c>
       <c r="AD14" t="n">
-        <v>1593315.786902029</v>
+        <v>1664460.480986121</v>
       </c>
       <c r="AE14" t="n">
-        <v>2180044.951770904</v>
+        <v>2277388.260899145</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.449233851605514e-06</v>
+        <v>2.493379606654793e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.33333333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>1971984.521286195</v>
+        <v>2060037.521613429</v>
       </c>
     </row>
     <row r="15">
@@ -15825,28 +15825,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1571.546689905556</v>
+        <v>1642.691383989649</v>
       </c>
       <c r="AB15" t="n">
-        <v>2150.259512875552</v>
+        <v>2247.602822003792</v>
       </c>
       <c r="AC15" t="n">
-        <v>1945.041762874889</v>
+        <v>2033.094763202123</v>
       </c>
       <c r="AD15" t="n">
-        <v>1571546.689905556</v>
+        <v>1642691.383989649</v>
       </c>
       <c r="AE15" t="n">
-        <v>2150259.512875551</v>
+        <v>2247602.822003792</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.45491712161181e-06</v>
+        <v>2.503157565896576e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.27638888888889</v>
       </c>
       <c r="AH15" t="n">
-        <v>1945041.762874889</v>
+        <v>2033094.763202123</v>
       </c>
     </row>
     <row r="16">
@@ -15931,28 +15931,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1549.189093550496</v>
+        <v>1620.333787634589</v>
       </c>
       <c r="AB16" t="n">
-        <v>2119.668863195021</v>
+        <v>2217.012172323261</v>
       </c>
       <c r="AC16" t="n">
-        <v>1917.370641865621</v>
+        <v>2005.423642192855</v>
       </c>
       <c r="AD16" t="n">
-        <v>1549189.093550497</v>
+        <v>1620333.787634589</v>
       </c>
       <c r="AE16" t="n">
-        <v>2119668.863195021</v>
+        <v>2217012.172323261</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.460749951355114e-06</v>
+        <v>2.513192839855249e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.22083333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>1917370.641865621</v>
+        <v>2005423.642192855</v>
       </c>
     </row>
     <row r="17">
@@ -16037,28 +16037,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1531.436485948691</v>
+        <v>1602.581180032783</v>
       </c>
       <c r="AB17" t="n">
-        <v>2095.378962284458</v>
+        <v>2192.722271412699</v>
       </c>
       <c r="AC17" t="n">
-        <v>1895.398935006873</v>
+        <v>1983.451935334107</v>
       </c>
       <c r="AD17" t="n">
-        <v>1531436.485948691</v>
+        <v>1602581.180032783</v>
       </c>
       <c r="AE17" t="n">
-        <v>2095378.962284458</v>
+        <v>2192722.271412699</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.464937623991333e-06</v>
+        <v>2.520397651928142e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>14.17916666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>1895398.935006873</v>
+        <v>1983451.935334107</v>
       </c>
     </row>
     <row r="18">
@@ -16143,28 +16143,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1508.095670163788</v>
+        <v>1579.24036424788</v>
       </c>
       <c r="AB18" t="n">
-        <v>2063.443028403434</v>
+        <v>2160.786337531675</v>
       </c>
       <c r="AC18" t="n">
-        <v>1866.510921833089</v>
+        <v>1954.563922160324</v>
       </c>
       <c r="AD18" t="n">
-        <v>1508095.670163788</v>
+        <v>1579240.36424788</v>
       </c>
       <c r="AE18" t="n">
-        <v>2063443.028403434</v>
+        <v>2160786.337531675</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.469723535575582e-06</v>
+        <v>2.528631722868592e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>14.13333333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>1866510.92183309</v>
+        <v>1954563.922160323</v>
       </c>
     </row>
     <row r="19">
@@ -16249,28 +16249,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1491.063013177839</v>
+        <v>1562.207707261931</v>
       </c>
       <c r="AB19" t="n">
-        <v>2040.138195687467</v>
+        <v>2137.481504815707</v>
       </c>
       <c r="AC19" t="n">
-        <v>1845.430269642995</v>
+        <v>1933.483269970229</v>
       </c>
       <c r="AD19" t="n">
-        <v>1491063.013177839</v>
+        <v>1562207.707261931</v>
       </c>
       <c r="AE19" t="n">
-        <v>2040138.195687467</v>
+        <v>2137481.504815707</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.473312969263769e-06</v>
+        <v>2.534807276073928e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>14.09861111111111</v>
       </c>
       <c r="AH19" t="n">
-        <v>1845430.269642995</v>
+        <v>1933483.269970229</v>
       </c>
     </row>
     <row r="20">
@@ -16355,28 +16355,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1481.276511442711</v>
+        <v>1552.421205526803</v>
       </c>
       <c r="AB20" t="n">
-        <v>2026.747872263479</v>
+        <v>2124.091181391719</v>
       </c>
       <c r="AC20" t="n">
-        <v>1833.317899893156</v>
+        <v>1921.37090022039</v>
       </c>
       <c r="AD20" t="n">
-        <v>1481276.511442711</v>
+        <v>1552421.205526803</v>
       </c>
       <c r="AE20" t="n">
-        <v>2026747.872263479</v>
+        <v>2124091.181391719</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.474958126370855e-06</v>
+        <v>2.537637737959707e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>14.08333333333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>1833317.899893156</v>
+        <v>1921370.90022039</v>
       </c>
     </row>
     <row r="21">
@@ -16461,28 +16461,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1487.465003254254</v>
+        <v>1558.609697338346</v>
       </c>
       <c r="AB21" t="n">
-        <v>2035.215239777022</v>
+        <v>2132.558548905263</v>
       </c>
       <c r="AC21" t="n">
-        <v>1840.977153735232</v>
+        <v>1929.030154062466</v>
       </c>
       <c r="AD21" t="n">
-        <v>1487465.003254254</v>
+        <v>1558609.697338346</v>
       </c>
       <c r="AE21" t="n">
-        <v>2035215.239777022</v>
+        <v>2132558.548905263</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.474509447159831e-06</v>
+        <v>2.536865793809041e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>15</v>
+        <v>14.0875</v>
       </c>
       <c r="AH21" t="n">
-        <v>1840977.153735232</v>
+        <v>1929030.154062466</v>
       </c>
     </row>
     <row r="22">
@@ -16567,28 +16567,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1493.859125177334</v>
+        <v>1565.003819261426</v>
       </c>
       <c r="AB22" t="n">
-        <v>2043.963959480931</v>
+        <v>2141.307268609172</v>
       </c>
       <c r="AC22" t="n">
-        <v>1848.890907909505</v>
+        <v>1936.943908236739</v>
       </c>
       <c r="AD22" t="n">
-        <v>1493859.125177334</v>
+        <v>1565003.819261426</v>
       </c>
       <c r="AE22" t="n">
-        <v>2043963.959480931</v>
+        <v>2141307.268609172</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.474509447159831e-06</v>
+        <v>2.536865793809041e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>15</v>
+        <v>14.08888888888889</v>
       </c>
       <c r="AH22" t="n">
-        <v>1848890.907909505</v>
+        <v>1936943.908236739</v>
       </c>
     </row>
   </sheetData>
@@ -16864,28 +16864,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1203.727028462899</v>
+        <v>1281.113715608598</v>
       </c>
       <c r="AB2" t="n">
-        <v>1646.992425031494</v>
+        <v>1752.876304443924</v>
       </c>
       <c r="AC2" t="n">
-        <v>1489.805779554874</v>
+        <v>1585.58425012514</v>
       </c>
       <c r="AD2" t="n">
-        <v>1203727.028462899</v>
+        <v>1281113.715608598</v>
       </c>
       <c r="AE2" t="n">
-        <v>1646992.425031494</v>
+        <v>1752876.304443924</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.427596852621546e-06</v>
+        <v>2.861846844218036e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.41388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1489805.779554874</v>
+        <v>1585584.25012514</v>
       </c>
     </row>
     <row r="3">
@@ -16970,28 +16970,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>891.8743633125554</v>
+        <v>952.1967812015554</v>
       </c>
       <c r="AB3" t="n">
-        <v>1220.301850604196</v>
+        <v>1302.837643997182</v>
       </c>
       <c r="AC3" t="n">
-        <v>1103.837954686935</v>
+        <v>1178.496647798208</v>
       </c>
       <c r="AD3" t="n">
-        <v>891874.3633125554</v>
+        <v>952196.7812015554</v>
       </c>
       <c r="AE3" t="n">
-        <v>1220301.850604196</v>
+        <v>1302837.643997182</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.648824248539329e-06</v>
+        <v>3.305332639034171e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.07638888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>1103837.954686935</v>
+        <v>1178496.647798208</v>
       </c>
     </row>
     <row r="4">
@@ -17076,28 +17076,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>868.0701697886935</v>
+        <v>936.9246327974923</v>
       </c>
       <c r="AB4" t="n">
-        <v>1187.731902857947</v>
+        <v>1281.941616791107</v>
       </c>
       <c r="AC4" t="n">
-        <v>1074.376437041379</v>
+        <v>1159.594908100923</v>
       </c>
       <c r="AD4" t="n">
-        <v>868070.1697886935</v>
+        <v>936924.6327974923</v>
       </c>
       <c r="AE4" t="n">
-        <v>1187731.902857947</v>
+        <v>1281941.616791107</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.665291012636769e-06</v>
+        <v>3.33834290855123e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.92777777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1074376.43704138</v>
+        <v>1159594.908100923</v>
       </c>
     </row>
   </sheetData>
@@ -17373,28 +17373,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4462.413233653773</v>
+        <v>4599.642165873591</v>
       </c>
       <c r="AB2" t="n">
-        <v>6105.67065406308</v>
+        <v>6293.433333239456</v>
       </c>
       <c r="AC2" t="n">
-        <v>5522.954016201653</v>
+        <v>5692.796888804003</v>
       </c>
       <c r="AD2" t="n">
-        <v>4462413.233653774</v>
+        <v>4599642.165873591</v>
       </c>
       <c r="AE2" t="n">
-        <v>6105670.65406308</v>
+        <v>6293433.333239457</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.898872984668539e-07</v>
+        <v>1.398949099661195e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.3375</v>
       </c>
       <c r="AH2" t="n">
-        <v>5522954.016201653</v>
+        <v>5692796.888804004</v>
       </c>
     </row>
     <row r="3">
@@ -17479,28 +17479,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2264.703714824505</v>
+        <v>2352.946729177319</v>
       </c>
       <c r="AB3" t="n">
-        <v>3098.66753429955</v>
+        <v>3219.405519544116</v>
       </c>
       <c r="AC3" t="n">
-        <v>2802.935053833083</v>
+        <v>2912.14997522273</v>
       </c>
       <c r="AD3" t="n">
-        <v>2264703.714824505</v>
+        <v>2352946.729177319</v>
       </c>
       <c r="AE3" t="n">
-        <v>3098667.534299551</v>
+        <v>3219405.519544116</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.17083688138886e-06</v>
+        <v>2.073639118198583e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.44305555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>2802935.053833083</v>
+        <v>2912149.97522273</v>
       </c>
     </row>
     <row r="4">
@@ -17585,28 +17585,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1875.167189287921</v>
+        <v>1963.410114132184</v>
       </c>
       <c r="AB4" t="n">
-        <v>2565.686474921578</v>
+        <v>2686.424337696589</v>
       </c>
       <c r="AC4" t="n">
-        <v>2320.820958718646</v>
+        <v>2430.035769327064</v>
       </c>
       <c r="AD4" t="n">
-        <v>1875167.189287921</v>
+        <v>1963410.114132184</v>
       </c>
       <c r="AE4" t="n">
-        <v>2565686.474921579</v>
+        <v>2686424.337696589</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.306734814235323e-06</v>
+        <v>2.314324455423757e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.52638888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>2320820.958718646</v>
+        <v>2430035.769327065</v>
       </c>
     </row>
     <row r="5">
@@ -17691,28 +17691,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1704.781106081063</v>
+        <v>1783.295120035583</v>
       </c>
       <c r="AB5" t="n">
-        <v>2332.556718974482</v>
+        <v>2439.983056660888</v>
       </c>
       <c r="AC5" t="n">
-        <v>2109.940779479472</v>
+        <v>2207.114498270901</v>
       </c>
       <c r="AD5" t="n">
-        <v>1704781.106081063</v>
+        <v>1783295.120035583</v>
       </c>
       <c r="AE5" t="n">
-        <v>2332556.718974481</v>
+        <v>2439983.056660888</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.377171614669474e-06</v>
+        <v>2.439073262932915e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.68055555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>2109940.779479472</v>
+        <v>2207114.498270901</v>
       </c>
     </row>
     <row r="6">
@@ -17797,28 +17797,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1611.209852785997</v>
+        <v>1689.553274539924</v>
       </c>
       <c r="AB6" t="n">
-        <v>2204.528402143821</v>
+        <v>2311.721328055381</v>
       </c>
       <c r="AC6" t="n">
-        <v>1994.131305518259</v>
+        <v>2091.093889027036</v>
       </c>
       <c r="AD6" t="n">
-        <v>1611209.852785997</v>
+        <v>1689553.274539924</v>
       </c>
       <c r="AE6" t="n">
-        <v>2204528.402143821</v>
+        <v>2311721.328055381</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.420242240983512e-06</v>
+        <v>2.515354542579795e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.20555555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>1994131.305518259</v>
+        <v>2091093.889027036</v>
       </c>
     </row>
     <row r="7">
@@ -17903,28 +17903,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1536.485858453257</v>
+        <v>1614.914531553206</v>
       </c>
       <c r="AB7" t="n">
-        <v>2102.287736507798</v>
+        <v>2209.597307072008</v>
       </c>
       <c r="AC7" t="n">
-        <v>1901.648345514863</v>
+        <v>1998.716441274353</v>
       </c>
       <c r="AD7" t="n">
-        <v>1536485.858453257</v>
+        <v>1614914.531553206</v>
       </c>
       <c r="AE7" t="n">
-        <v>2102287.736507799</v>
+        <v>2209597.307072008</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.449474290611814e-06</v>
+        <v>2.567126674614501e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="AH7" t="n">
-        <v>1901648.345514863</v>
+        <v>1998716.441274353</v>
       </c>
     </row>
     <row r="8">
@@ -18009,28 +18009,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1487.642636890288</v>
+        <v>1566.071309990236</v>
       </c>
       <c r="AB8" t="n">
-        <v>2035.458285954487</v>
+        <v>2142.767856518697</v>
       </c>
       <c r="AC8" t="n">
-        <v>1841.197003926637</v>
+        <v>1938.265099686126</v>
       </c>
       <c r="AD8" t="n">
-        <v>1487642.636890288</v>
+        <v>1566071.309990236</v>
       </c>
       <c r="AE8" t="n">
-        <v>2035458.285954487</v>
+        <v>2142767.856518697</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.470465390078944e-06</v>
+        <v>2.604303471554316e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.68611111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>1841197.003926637</v>
+        <v>1938265.099686126</v>
       </c>
     </row>
     <row r="9">
@@ -18115,28 +18115,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1446.28885359422</v>
+        <v>1524.717526694167</v>
       </c>
       <c r="AB9" t="n">
-        <v>1978.876215248647</v>
+        <v>2086.185785812856</v>
       </c>
       <c r="AC9" t="n">
-        <v>1790.015046635527</v>
+        <v>1887.083142395017</v>
       </c>
       <c r="AD9" t="n">
-        <v>1446288.85359422</v>
+        <v>1524717.526694167</v>
       </c>
       <c r="AE9" t="n">
-        <v>1978876.215248647</v>
+        <v>2086185.785812857</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.486791800775602e-06</v>
+        <v>2.633218758063061e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.525</v>
       </c>
       <c r="AH9" t="n">
-        <v>1790015.046635527</v>
+        <v>1887083.142395017</v>
       </c>
     </row>
     <row r="10">
@@ -18221,28 +18221,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1410.905555161129</v>
+        <v>1479.520066025313</v>
       </c>
       <c r="AB10" t="n">
-        <v>1930.463225331536</v>
+        <v>2024.344626154493</v>
       </c>
       <c r="AC10" t="n">
-        <v>1746.222524528047</v>
+        <v>1831.144016219834</v>
       </c>
       <c r="AD10" t="n">
-        <v>1410905.555161129</v>
+        <v>1479520.066025313</v>
       </c>
       <c r="AE10" t="n">
-        <v>1930463.225331536</v>
+        <v>2024344.626154493</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.49938646045588e-06</v>
+        <v>2.65552483622695e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.40416666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1746222.524528047</v>
+        <v>1831144.016219834</v>
       </c>
     </row>
     <row r="11">
@@ -18327,28 +18327,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1380.012145096116</v>
+        <v>1448.626655960299</v>
       </c>
       <c r="AB11" t="n">
-        <v>1888.193498759523</v>
+        <v>1982.074899582479</v>
       </c>
       <c r="AC11" t="n">
-        <v>1707.986961334133</v>
+        <v>1792.90845302592</v>
       </c>
       <c r="AD11" t="n">
-        <v>1380012.145096116</v>
+        <v>1448626.655960299</v>
       </c>
       <c r="AE11" t="n">
-        <v>1888193.498759523</v>
+        <v>1982074.899582479</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.509026817248192e-06</v>
+        <v>2.672598624451162e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.31111111111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>1707986.961334133</v>
+        <v>1792908.45302592</v>
       </c>
     </row>
     <row r="12">
@@ -18433,28 +18433,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1350.553398697097</v>
+        <v>1419.167909561282</v>
       </c>
       <c r="AB12" t="n">
-        <v>1847.886742308219</v>
+        <v>1941.768143131175</v>
       </c>
       <c r="AC12" t="n">
-        <v>1671.527025147653</v>
+        <v>1756.44851683944</v>
       </c>
       <c r="AD12" t="n">
-        <v>1350553.398697098</v>
+        <v>1419167.909561282</v>
       </c>
       <c r="AE12" t="n">
-        <v>1847886.742308218</v>
+        <v>1941768.143131175</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.517889725912092e-06</v>
+        <v>2.688295494270195e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.22777777777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>1671527.025147653</v>
+        <v>1756448.51683944</v>
       </c>
     </row>
     <row r="13">
@@ -18539,28 +18539,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1322.810210902896</v>
+        <v>1391.42472176708</v>
       </c>
       <c r="AB13" t="n">
-        <v>1809.927288825127</v>
+        <v>1903.808689648084</v>
       </c>
       <c r="AC13" t="n">
-        <v>1637.190368628561</v>
+        <v>1722.111860320348</v>
       </c>
       <c r="AD13" t="n">
-        <v>1322810.210902896</v>
+        <v>1391424.72176708</v>
       </c>
       <c r="AE13" t="n">
-        <v>1809927.288825127</v>
+        <v>1903808.689648084</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.52473126944212e-06</v>
+        <v>2.700412376235764e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.16388888888889</v>
       </c>
       <c r="AH13" t="n">
-        <v>1637190.368628561</v>
+        <v>1722111.860320348</v>
       </c>
     </row>
     <row r="14">
@@ -18645,28 +18645,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1316.380276413124</v>
+        <v>1384.994787277308</v>
       </c>
       <c r="AB14" t="n">
-        <v>1801.129568787532</v>
+        <v>1895.010969610489</v>
       </c>
       <c r="AC14" t="n">
-        <v>1629.232290643676</v>
+        <v>1714.153782335463</v>
       </c>
       <c r="AD14" t="n">
-        <v>1316380.276413124</v>
+        <v>1384994.787277308</v>
       </c>
       <c r="AE14" t="n">
-        <v>1801129.568787532</v>
+        <v>1895010.969610489</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.526752634575992e-06</v>
+        <v>2.703992364089228e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.14583333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>1629232.290643676</v>
+        <v>1714153.782335463</v>
       </c>
     </row>
     <row r="15">
@@ -18751,28 +18751,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1322.922836945529</v>
+        <v>1391.537347809713</v>
       </c>
       <c r="AB15" t="n">
-        <v>1810.081388745368</v>
+        <v>1903.962789568325</v>
       </c>
       <c r="AC15" t="n">
-        <v>1637.329761468695</v>
+        <v>1722.251253160482</v>
       </c>
       <c r="AD15" t="n">
-        <v>1322922.836945529</v>
+        <v>1391537.347809713</v>
       </c>
       <c r="AE15" t="n">
-        <v>1810081.388745368</v>
+        <v>1903962.789568325</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.526752634575992e-06</v>
+        <v>2.703992364089228e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.14444444444445</v>
       </c>
       <c r="AH15" t="n">
-        <v>1637329.761468695</v>
+        <v>1722251.253160482</v>
       </c>
     </row>
   </sheetData>
@@ -19048,28 +19048,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5644.444363504851</v>
+        <v>5794.391987566215</v>
       </c>
       <c r="AB2" t="n">
-        <v>7722.977793458476</v>
+        <v>7928.142747921544</v>
       </c>
       <c r="AC2" t="n">
-        <v>6985.907632117919</v>
+        <v>7171.491931277844</v>
       </c>
       <c r="AD2" t="n">
-        <v>5644444.363504851</v>
+        <v>5794391.987566215</v>
       </c>
       <c r="AE2" t="n">
-        <v>7722977.793458477</v>
+        <v>7928142.747921543</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.97910105135792e-07</v>
+        <v>1.217094282401727e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.32083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>6985907.632117919</v>
+        <v>7171491.931277844</v>
       </c>
     </row>
     <row r="3">
@@ -19154,28 +19154,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2587.310319107984</v>
+        <v>2687.161643845649</v>
       </c>
       <c r="AB3" t="n">
-        <v>3540.072122679142</v>
+        <v>3676.693110314771</v>
       </c>
       <c r="AC3" t="n">
-        <v>3202.212607812939</v>
+        <v>3325.79468013738</v>
       </c>
       <c r="AD3" t="n">
-        <v>2587310.319107984</v>
+        <v>2687161.643845649</v>
       </c>
       <c r="AE3" t="n">
-        <v>3540072.122679141</v>
+        <v>3676693.110314771</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.099806384845074e-06</v>
+        <v>1.917966300951336e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.24027777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>3202212.60781294</v>
+        <v>3325794.68013738</v>
       </c>
     </row>
     <row r="4">
@@ -19260,28 +19260,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2092.60083530864</v>
+        <v>2182.5352196985</v>
       </c>
       <c r="AB4" t="n">
-        <v>2863.188781902585</v>
+        <v>2986.240974249808</v>
       </c>
       <c r="AC4" t="n">
-        <v>2589.930063068496</v>
+        <v>2701.238326882937</v>
       </c>
       <c r="AD4" t="n">
-        <v>2092600.83530864</v>
+        <v>2182535.2196985</v>
       </c>
       <c r="AE4" t="n">
-        <v>2863188.781902585</v>
+        <v>2986240.974249809</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.245147192594374e-06</v>
+        <v>2.171427978622423e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.99305555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>2589930.063068496</v>
+        <v>2701238.326882937</v>
       </c>
     </row>
     <row r="5">
@@ -19366,28 +19366,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1897.521146402424</v>
+        <v>1977.453428607009</v>
       </c>
       <c r="AB5" t="n">
-        <v>2596.272145232629</v>
+        <v>2705.639020108353</v>
       </c>
       <c r="AC5" t="n">
-        <v>2348.487575582467</v>
+        <v>2447.416629417427</v>
       </c>
       <c r="AD5" t="n">
-        <v>1897521.146402424</v>
+        <v>1977453.428607009</v>
       </c>
       <c r="AE5" t="n">
-        <v>2596272.145232629</v>
+        <v>2705639.020108353</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.321626317846103e-06</v>
+        <v>2.30480089496507e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.01111111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>2348487.575582467</v>
+        <v>2447416.629417426</v>
       </c>
     </row>
     <row r="6">
@@ -19472,28 +19472,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1777.202817537489</v>
+        <v>1857.049758887502</v>
       </c>
       <c r="AB6" t="n">
-        <v>2431.647299609579</v>
+        <v>2540.897407363107</v>
       </c>
       <c r="AC6" t="n">
-        <v>2199.574294173261</v>
+        <v>2298.397724976281</v>
       </c>
       <c r="AD6" t="n">
-        <v>1777202.817537489</v>
+        <v>1857049.758887502</v>
       </c>
       <c r="AE6" t="n">
-        <v>2431647.29960958</v>
+        <v>2540897.407363107</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.368549765211705e-06</v>
+        <v>2.38663128985259e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.46111111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>2199574.294173261</v>
+        <v>2298397.724976281</v>
       </c>
     </row>
     <row r="7">
@@ -19578,28 +19578,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1706.661802936719</v>
+        <v>1776.67723430205</v>
       </c>
       <c r="AB7" t="n">
-        <v>2335.129971382879</v>
+        <v>2430.928173439755</v>
       </c>
       <c r="AC7" t="n">
-        <v>2112.268444289595</v>
+        <v>2198.923800395784</v>
       </c>
       <c r="AD7" t="n">
-        <v>1706661.802936719</v>
+        <v>1776677.23430205</v>
       </c>
       <c r="AE7" t="n">
-        <v>2335129.971382879</v>
+        <v>2430928.173439755</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.398714838518163e-06</v>
+        <v>2.439236543708854e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.12777777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>2112268.444289595</v>
+        <v>2198923.800395784</v>
       </c>
     </row>
     <row r="8">
@@ -19684,28 +19684,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1641.872966972013</v>
+        <v>1721.805159668046</v>
       </c>
       <c r="AB8" t="n">
-        <v>2246.483027734253</v>
+        <v>2355.84978014043</v>
       </c>
       <c r="AC8" t="n">
-        <v>2032.081840526027</v>
+        <v>2131.010783579759</v>
       </c>
       <c r="AD8" t="n">
-        <v>1641872.966972013</v>
+        <v>1721805.159668046</v>
       </c>
       <c r="AE8" t="n">
-        <v>2246483.027734253</v>
+        <v>2355849.78014043</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.421719515635715e-06</v>
+        <v>2.479354691851762e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.88194444444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>2032081.840526027</v>
+        <v>2131010.783579759</v>
       </c>
     </row>
     <row r="9">
@@ -19790,28 +19790,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1597.532620365696</v>
+        <v>1677.46481306173</v>
       </c>
       <c r="AB9" t="n">
-        <v>2185.814609349457</v>
+        <v>2295.181361755634</v>
       </c>
       <c r="AC9" t="n">
-        <v>1977.203530843216</v>
+        <v>2076.132473896949</v>
       </c>
       <c r="AD9" t="n">
-        <v>1597532.620365696</v>
+        <v>1677464.81306173</v>
       </c>
       <c r="AE9" t="n">
-        <v>2185814.609349457</v>
+        <v>2295181.361755634</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.439849029390607e-06</v>
+        <v>2.510970980785576e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.69583333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1977203.530843216</v>
+        <v>2076132.473896949</v>
       </c>
     </row>
     <row r="10">
@@ -19896,28 +19896,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1562.394759772598</v>
+        <v>1642.326952468632</v>
       </c>
       <c r="AB10" t="n">
-        <v>2137.737438312977</v>
+        <v>2247.104190719154</v>
       </c>
       <c r="AC10" t="n">
-        <v>1933.714777533724</v>
+        <v>2032.643720587457</v>
       </c>
       <c r="AD10" t="n">
-        <v>1562394.759772599</v>
+        <v>1642326.952468632</v>
       </c>
       <c r="AE10" t="n">
-        <v>2137737.438312977</v>
+        <v>2247104.190719154</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.453103379782839e-06</v>
+        <v>2.534085410510298e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.56111111111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>1933714.777533724</v>
+        <v>2032643.720587457</v>
       </c>
     </row>
     <row r="11">
@@ -20002,28 +20002,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1530.276908126739</v>
+        <v>1600.206998637498</v>
       </c>
       <c r="AB11" t="n">
-        <v>2093.792376751501</v>
+        <v>2189.473811686179</v>
       </c>
       <c r="AC11" t="n">
-        <v>1893.963770970394</v>
+        <v>1980.513504044644</v>
       </c>
       <c r="AD11" t="n">
-        <v>1530276.908126739</v>
+        <v>1600206.998637498</v>
       </c>
       <c r="AE11" t="n">
-        <v>2093792.376751501</v>
+        <v>2189473.811686179</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.464224846203907e-06</v>
+        <v>2.553480276831042e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.45</v>
       </c>
       <c r="AH11" t="n">
-        <v>1893963.770970394</v>
+        <v>1980513.504044644</v>
       </c>
     </row>
     <row r="12">
@@ -20108,28 +20108,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1500.894457306452</v>
+        <v>1570.824547817211</v>
       </c>
       <c r="AB12" t="n">
-        <v>2053.590011276939</v>
+        <v>2149.271446211617</v>
       </c>
       <c r="AC12" t="n">
-        <v>1857.59826283235</v>
+        <v>1944.1479959066</v>
       </c>
       <c r="AD12" t="n">
-        <v>1500894.457306452</v>
+        <v>1570824.547817211</v>
       </c>
       <c r="AE12" t="n">
-        <v>2053590.011276938</v>
+        <v>2149271.446211617</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.473975172929227e-06</v>
+        <v>2.570483995249228e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.35555555555555</v>
       </c>
       <c r="AH12" t="n">
-        <v>1857598.26283235</v>
+        <v>1944147.9959066</v>
       </c>
     </row>
     <row r="13">
@@ -20214,28 +20214,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1474.316720466694</v>
+        <v>1544.246810977453</v>
       </c>
       <c r="AB13" t="n">
-        <v>2017.225179205785</v>
+        <v>2112.906614140464</v>
       </c>
       <c r="AC13" t="n">
-        <v>1824.704039295705</v>
+        <v>1911.253772369956</v>
       </c>
       <c r="AD13" t="n">
-        <v>1474316.720466694</v>
+        <v>1544246.810977453</v>
       </c>
       <c r="AE13" t="n">
-        <v>2017225.179205786</v>
+        <v>2112906.614140464</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.481592615683383e-06</v>
+        <v>2.583768150263436e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.28055555555555</v>
       </c>
       <c r="AH13" t="n">
-        <v>1824704.039295705</v>
+        <v>1911253.772369956</v>
       </c>
     </row>
     <row r="14">
@@ -20320,28 +20320,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1451.639075142548</v>
+        <v>1521.569165653307</v>
       </c>
       <c r="AB14" t="n">
-        <v>1986.196624406186</v>
+        <v>2081.878059340865</v>
       </c>
       <c r="AC14" t="n">
-        <v>1796.63680621733</v>
+        <v>1883.18653929158</v>
       </c>
       <c r="AD14" t="n">
-        <v>1451639.075142548</v>
+        <v>1521569.165653307</v>
       </c>
       <c r="AE14" t="n">
-        <v>1986196.624406186</v>
+        <v>2081878.059340865</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.487077174466375e-06</v>
+        <v>2.593332741873666e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.22916666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>1796636.80621733</v>
+        <v>1883186.53929158</v>
       </c>
     </row>
     <row r="15">
@@ -20426,28 +20426,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1425.157383188378</v>
+        <v>1495.087473699137</v>
       </c>
       <c r="AB15" t="n">
-        <v>1949.963205184696</v>
+        <v>2045.644640119374</v>
       </c>
       <c r="AC15" t="n">
-        <v>1763.861453672415</v>
+        <v>1850.411186746665</v>
       </c>
       <c r="AD15" t="n">
-        <v>1425157.383188378</v>
+        <v>1495087.473699137</v>
       </c>
       <c r="AE15" t="n">
-        <v>1949963.205184696</v>
+        <v>2045644.640119374</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.494237570655282e-06</v>
+        <v>2.605819847587021e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.16111111111111</v>
       </c>
       <c r="AH15" t="n">
-        <v>1763861.453672415</v>
+        <v>1850411.186746665</v>
       </c>
     </row>
     <row r="16">
@@ -20532,28 +20532,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1404.147946186011</v>
+        <v>1474.078036696769</v>
       </c>
       <c r="AB16" t="n">
-        <v>1921.217166607112</v>
+        <v>2016.89860154179</v>
       </c>
       <c r="AC16" t="n">
-        <v>1737.858896671357</v>
+        <v>1824.408629745607</v>
       </c>
       <c r="AD16" t="n">
-        <v>1404147.94618601</v>
+        <v>1474078.036696769</v>
       </c>
       <c r="AE16" t="n">
-        <v>1921217.166607112</v>
+        <v>2016898.60154179</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.49850333859761e-06</v>
+        <v>2.613258974394977e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.12083333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>1737858.896671357</v>
+        <v>1824408.629745607</v>
       </c>
     </row>
     <row r="17">
@@ -20638,28 +20638,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1399.167442749628</v>
+        <v>1469.097533260387</v>
       </c>
       <c r="AB17" t="n">
-        <v>1914.402622081149</v>
+        <v>2010.084057015827</v>
       </c>
       <c r="AC17" t="n">
-        <v>1731.694722710679</v>
+        <v>1818.244455784929</v>
       </c>
       <c r="AD17" t="n">
-        <v>1399167.442749628</v>
+        <v>1469097.533260387</v>
       </c>
       <c r="AE17" t="n">
-        <v>1914402.622081149</v>
+        <v>2010084.057015827</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.499874478293358e-06</v>
+        <v>2.615650122297535e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>14.10833333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>1731694.722710679</v>
+        <v>1818244.455784929</v>
       </c>
     </row>
     <row r="18">
@@ -20744,28 +20744,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1405.502401318961</v>
+        <v>1475.43249182972</v>
       </c>
       <c r="AB18" t="n">
-        <v>1923.070391874358</v>
+        <v>2018.751826809036</v>
       </c>
       <c r="AC18" t="n">
-        <v>1739.535252720115</v>
+        <v>1826.084985794365</v>
       </c>
       <c r="AD18" t="n">
-        <v>1405502.401318961</v>
+        <v>1475432.49182972</v>
       </c>
       <c r="AE18" t="n">
-        <v>1923070.391874358</v>
+        <v>2018751.826809036</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.499722129438275e-06</v>
+        <v>2.615384439197251e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>14.10972222222222</v>
       </c>
       <c r="AH18" t="n">
-        <v>1739535.252720115</v>
+        <v>1826084.985794365</v>
       </c>
     </row>
   </sheetData>
@@ -21041,28 +21041,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>9241.844676439636</v>
+        <v>9438.170506246752</v>
       </c>
       <c r="AB2" t="n">
-        <v>12645.09960771702</v>
+        <v>12913.72126934346</v>
       </c>
       <c r="AC2" t="n">
-        <v>11438.2690486648</v>
+        <v>11681.25383591847</v>
       </c>
       <c r="AD2" t="n">
-        <v>9241844.676439635</v>
+        <v>9438170.506246751</v>
       </c>
       <c r="AE2" t="n">
-        <v>12645099.60771702</v>
+        <v>12913721.26934347</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.348231516822267e-07</v>
+        <v>9.091639117180125e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.19166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>11438269.0486648</v>
+        <v>11681253.83591847</v>
       </c>
     </row>
     <row r="3">
@@ -21147,28 +21147,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3298.08399445452</v>
+        <v>3411.710332162291</v>
       </c>
       <c r="AB3" t="n">
-        <v>4512.584022409808</v>
+        <v>4668.052590501821</v>
       </c>
       <c r="AC3" t="n">
-        <v>4081.9093367623</v>
+        <v>4222.54020291711</v>
       </c>
       <c r="AD3" t="n">
-        <v>3298083.99445452</v>
+        <v>3411710.332162291</v>
       </c>
       <c r="AE3" t="n">
-        <v>4512584.022409808</v>
+        <v>4668052.590501822</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.728869869479273e-07</v>
+        <v>1.653843398385035e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.99444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>4081909.3367623</v>
+        <v>4222540.20291711</v>
       </c>
     </row>
     <row r="4">
@@ -21253,28 +21253,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2558.591907563668</v>
+        <v>2661.795479093018</v>
       </c>
       <c r="AB4" t="n">
-        <v>3500.778325037306</v>
+        <v>3641.986004624011</v>
       </c>
       <c r="AC4" t="n">
-        <v>3166.668955068852</v>
+        <v>3294.399971902019</v>
       </c>
       <c r="AD4" t="n">
-        <v>2558591.907563668</v>
+        <v>2661795.479093018</v>
       </c>
       <c r="AE4" t="n">
-        <v>3500778.325037306</v>
+        <v>3641986.004624011</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.13567203751494e-06</v>
+        <v>1.930567195545288e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.98333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>3166668.955068851</v>
+        <v>3294399.971902019</v>
       </c>
     </row>
     <row r="5">
@@ -21359,28 +21359,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2274.815823992318</v>
+        <v>2367.767311052391</v>
       </c>
       <c r="AB5" t="n">
-        <v>3112.503368177724</v>
+        <v>3239.683693503517</v>
       </c>
       <c r="AC5" t="n">
-        <v>2815.450415144638</v>
+        <v>2930.49282872004</v>
       </c>
       <c r="AD5" t="n">
-        <v>2274815.823992318</v>
+        <v>2367767.31105239</v>
       </c>
       <c r="AE5" t="n">
-        <v>3112503.368177725</v>
+        <v>3239683.693503517</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.220814353936169e-06</v>
+        <v>2.075303490536965e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.72916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2815450.415144638</v>
+        <v>2930492.82872004</v>
       </c>
     </row>
     <row r="6">
@@ -21465,28 +21465,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2124.22881248982</v>
+        <v>2206.842963734597</v>
       </c>
       <c r="AB6" t="n">
-        <v>2906.46357560975</v>
+        <v>3019.499902022151</v>
       </c>
       <c r="AC6" t="n">
-        <v>2629.074771200804</v>
+        <v>2731.323069267772</v>
       </c>
       <c r="AD6" t="n">
-        <v>2124228.81248982</v>
+        <v>2206842.963734597</v>
       </c>
       <c r="AE6" t="n">
-        <v>2906463.57560975</v>
+        <v>3019499.902022151</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.274340784294247e-06</v>
+        <v>2.166294874607726e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.02638888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>2629074.771200804</v>
+        <v>2731323.069267772</v>
       </c>
     </row>
     <row r="7">
@@ -21571,28 +21571,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2014.884848501242</v>
+        <v>2097.584251092037</v>
       </c>
       <c r="AB7" t="n">
-        <v>2756.854340165343</v>
+        <v>2870.007311230217</v>
       </c>
       <c r="AC7" t="n">
-        <v>2493.744031209329</v>
+        <v>2596.097841526964</v>
       </c>
       <c r="AD7" t="n">
-        <v>2014884.848501242</v>
+        <v>2097584.251092037</v>
       </c>
       <c r="AE7" t="n">
-        <v>2756854.340165343</v>
+        <v>2870007.311230217</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.311838695671472e-06</v>
+        <v>2.230038838723231e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.56805555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>2493744.03120933</v>
+        <v>2596097.841526964</v>
       </c>
     </row>
     <row r="8">
@@ -21677,28 +21677,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1948.224848872453</v>
+        <v>2030.753659262655</v>
       </c>
       <c r="AB8" t="n">
-        <v>2665.647187841603</v>
+        <v>2778.566747131629</v>
       </c>
       <c r="AC8" t="n">
-        <v>2411.241561493325</v>
+        <v>2513.384236528309</v>
       </c>
       <c r="AD8" t="n">
-        <v>1948224.848872453</v>
+        <v>2030753.659262655</v>
       </c>
       <c r="AE8" t="n">
-        <v>2665647.187841603</v>
+        <v>2778566.747131629</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.337572556420548e-06</v>
+        <v>2.273784696449558e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.26944444444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>2411241.561493325</v>
+        <v>2513384.236528309</v>
       </c>
     </row>
     <row r="9">
@@ -21783,28 +21783,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1895.776565106183</v>
+        <v>1968.13863188168</v>
       </c>
       <c r="AB9" t="n">
-        <v>2593.885132137616</v>
+        <v>2692.894104288929</v>
       </c>
       <c r="AC9" t="n">
-        <v>2346.328375667049</v>
+        <v>2435.888070476206</v>
       </c>
       <c r="AD9" t="n">
-        <v>1895776.565106183</v>
+        <v>1968138.63188168</v>
       </c>
       <c r="AE9" t="n">
-        <v>2593885.132137616</v>
+        <v>2692894.104288929</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.358012594386957e-06</v>
+        <v>2.308531406300755e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.03888888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>2346328.375667049</v>
+        <v>2435888.070476206</v>
       </c>
     </row>
     <row r="10">
@@ -21889,28 +21889,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1843.757948915</v>
+        <v>1926.372010651223</v>
       </c>
       <c r="AB10" t="n">
-        <v>2522.710966565458</v>
+        <v>2635.747170508135</v>
       </c>
       <c r="AC10" t="n">
-        <v>2281.946972563529</v>
+        <v>2384.195159849226</v>
       </c>
       <c r="AD10" t="n">
-        <v>1843757.948915</v>
+        <v>1926372.010651223</v>
       </c>
       <c r="AE10" t="n">
-        <v>2522710.966565458</v>
+        <v>2635747.170508135</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.373894062734958e-06</v>
+        <v>2.335528849926146e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.86527777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>2281946.972563529</v>
+        <v>2384195.159849226</v>
       </c>
     </row>
     <row r="11">
@@ -21995,28 +21995,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1807.49658965958</v>
+        <v>1890.110651395804</v>
       </c>
       <c r="AB11" t="n">
-        <v>2473.096575093927</v>
+        <v>2586.132779036604</v>
       </c>
       <c r="AC11" t="n">
-        <v>2237.067708979806</v>
+        <v>2339.315896265501</v>
       </c>
       <c r="AD11" t="n">
-        <v>1807496.58965958</v>
+        <v>1890110.651395804</v>
       </c>
       <c r="AE11" t="n">
-        <v>2473096.575093927</v>
+        <v>2586132.779036603</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.387128619691626e-06</v>
+        <v>2.358026719613972e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.72361111111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>2237067.708979805</v>
+        <v>2339315.896265501</v>
       </c>
     </row>
     <row r="12">
@@ -22101,28 +22101,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1781.284876643855</v>
+        <v>1863.898938380078</v>
       </c>
       <c r="AB12" t="n">
-        <v>2437.232552966646</v>
+        <v>2550.268756909323</v>
       </c>
       <c r="AC12" t="n">
-        <v>2204.626498788882</v>
+        <v>2306.874686074577</v>
       </c>
       <c r="AD12" t="n">
-        <v>1781284.876643855</v>
+        <v>1863898.938380078</v>
       </c>
       <c r="AE12" t="n">
-        <v>2437232.552966646</v>
+        <v>2550268.756909323</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.396392809561294e-06</v>
+        <v>2.373775228395449e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.625</v>
       </c>
       <c r="AH12" t="n">
-        <v>2204626.498788882</v>
+        <v>2306874.686074577</v>
       </c>
     </row>
     <row r="13">
@@ -22207,28 +22207,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1752.425407373356</v>
+        <v>1835.039469109579</v>
       </c>
       <c r="AB13" t="n">
-        <v>2397.745753920823</v>
+        <v>2510.781957863499</v>
       </c>
       <c r="AC13" t="n">
-        <v>2168.90826442392</v>
+        <v>2271.156451709616</v>
       </c>
       <c r="AD13" t="n">
-        <v>1752425.407373356</v>
+        <v>1835039.469109579</v>
       </c>
       <c r="AE13" t="n">
-        <v>2397745.753920823</v>
+        <v>2510781.957863499</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.406245201962368e-06</v>
+        <v>2.390523642496386e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.52361111111111</v>
       </c>
       <c r="AH13" t="n">
-        <v>2168908.26442392</v>
+        <v>2271156.451709616</v>
       </c>
     </row>
     <row r="14">
@@ -22313,28 +22313,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1728.680601387614</v>
+        <v>1800.957327308539</v>
       </c>
       <c r="AB14" t="n">
-        <v>2365.257062824222</v>
+        <v>2464.149267853338</v>
       </c>
       <c r="AC14" t="n">
-        <v>2139.520248407415</v>
+        <v>2228.974320184634</v>
       </c>
       <c r="AD14" t="n">
-        <v>1728680.601387614</v>
+        <v>1800957.327308539</v>
       </c>
       <c r="AE14" t="n">
-        <v>2365257.062824222</v>
+        <v>2464149.267853338</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.413744784237813e-06</v>
+        <v>2.403272435319487e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.44722222222222</v>
       </c>
       <c r="AH14" t="n">
-        <v>2139520.248407415</v>
+        <v>2228974.320184634</v>
       </c>
     </row>
     <row r="15">
@@ -22419,28 +22419,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1707.284581504237</v>
+        <v>1779.561307425162</v>
       </c>
       <c r="AB15" t="n">
-        <v>2335.982084494008</v>
+        <v>2434.874289523124</v>
       </c>
       <c r="AC15" t="n">
-        <v>2113.039232921346</v>
+        <v>2202.493304698565</v>
       </c>
       <c r="AD15" t="n">
-        <v>1707284.581504237</v>
+        <v>1779561.307425162</v>
       </c>
       <c r="AE15" t="n">
-        <v>2335982.084494008</v>
+        <v>2434874.289523124</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.419479758919036e-06</v>
+        <v>2.413021512184211e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.3875</v>
       </c>
       <c r="AH15" t="n">
-        <v>2113039.232921347</v>
+        <v>2202493.304698565</v>
       </c>
     </row>
     <row r="16">
@@ -22525,28 +22525,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1687.604041626578</v>
+        <v>1759.880767547503</v>
       </c>
       <c r="AB16" t="n">
-        <v>2309.054301589254</v>
+        <v>2407.946506618369</v>
       </c>
       <c r="AC16" t="n">
-        <v>2088.681399823642</v>
+        <v>2178.13547160086</v>
       </c>
       <c r="AD16" t="n">
-        <v>1687604.041626578</v>
+        <v>1759880.767547503</v>
       </c>
       <c r="AE16" t="n">
-        <v>2309054.301589254</v>
+        <v>2407946.506618369</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.425214733600259e-06</v>
+        <v>2.422770589048935e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.33055555555556</v>
       </c>
       <c r="AH16" t="n">
-        <v>2088681.399823642</v>
+        <v>2178135.471600859</v>
       </c>
     </row>
     <row r="17">
@@ -22631,28 +22631,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1666.925936725775</v>
+        <v>1739.2026626467</v>
       </c>
       <c r="AB17" t="n">
-        <v>2280.761606210371</v>
+        <v>2379.653811239486</v>
       </c>
       <c r="AC17" t="n">
-        <v>2063.088919582671</v>
+        <v>2152.54299135989</v>
       </c>
       <c r="AD17" t="n">
-        <v>1666925.936725775</v>
+        <v>1739202.6626467</v>
       </c>
       <c r="AE17" t="n">
-        <v>2280761.606210371</v>
+        <v>2379653.811239486</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.431096758914333e-06</v>
+        <v>2.432769642243525e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>14.27083333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>2063088.919582671</v>
+        <v>2152542.99135989</v>
       </c>
     </row>
     <row r="18">
@@ -22737,28 +22737,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1650.499980049671</v>
+        <v>1722.776705970596</v>
       </c>
       <c r="AB18" t="n">
-        <v>2258.28688762406</v>
+        <v>2357.179092653175</v>
       </c>
       <c r="AC18" t="n">
-        <v>2042.759156594773</v>
+        <v>2132.213228371991</v>
       </c>
       <c r="AD18" t="n">
-        <v>1650499.980049671</v>
+        <v>1722776.705970596</v>
       </c>
       <c r="AE18" t="n">
-        <v>2258286.88762406</v>
+        <v>2357179.092653175</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.434625974102778e-06</v>
+        <v>2.438769074160278e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>14.23611111111111</v>
       </c>
       <c r="AH18" t="n">
-        <v>2042759.156594773</v>
+        <v>2132213.228371991</v>
       </c>
     </row>
     <row r="19">
@@ -22843,28 +22843,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1632.762964244874</v>
+        <v>1705.039690165799</v>
       </c>
       <c r="AB19" t="n">
-        <v>2234.018320098026</v>
+        <v>2332.910525127142</v>
       </c>
       <c r="AC19" t="n">
-        <v>2020.806747092275</v>
+        <v>2110.260818869493</v>
       </c>
       <c r="AD19" t="n">
-        <v>1632762.964244874</v>
+        <v>1705039.690165799</v>
       </c>
       <c r="AE19" t="n">
-        <v>2234018.320098026</v>
+        <v>2332910.525127142</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.439037493088334e-06</v>
+        <v>2.44626836405622e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>14.19166666666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>2020806.747092275</v>
+        <v>2110260.818869493</v>
       </c>
     </row>
     <row r="20">
@@ -22949,28 +22949,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1616.452026837484</v>
+        <v>1688.728752758409</v>
       </c>
       <c r="AB20" t="n">
-        <v>2211.700975949464</v>
+        <v>2310.593180978579</v>
       </c>
       <c r="AC20" t="n">
-        <v>2000.619338946662</v>
+        <v>2090.07341072388</v>
       </c>
       <c r="AD20" t="n">
-        <v>1616452.026837484</v>
+        <v>1688728.752758409</v>
       </c>
       <c r="AE20" t="n">
-        <v>2211700.975949463</v>
+        <v>2310593.180978579</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.44271375890963e-06</v>
+        <v>2.452517772302838e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>14.15555555555556</v>
       </c>
       <c r="AH20" t="n">
-        <v>2000619.338946662</v>
+        <v>2090073.41072388</v>
       </c>
     </row>
     <row r="21">
@@ -23055,28 +23055,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1600.281141901784</v>
+        <v>1672.557867822709</v>
       </c>
       <c r="AB21" t="n">
-        <v>2189.575257771345</v>
+        <v>2288.46746280046</v>
       </c>
       <c r="AC21" t="n">
-        <v>1980.605268257822</v>
+        <v>2070.05934003504</v>
       </c>
       <c r="AD21" t="n">
-        <v>1600281.141901784</v>
+        <v>1672557.867822709</v>
       </c>
       <c r="AE21" t="n">
-        <v>2189575.257771345</v>
+        <v>2288467.46280046</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.44506656903526e-06</v>
+        <v>2.456517393580674e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>15</v>
+        <v>14.13333333333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>1980605.268257822</v>
+        <v>2070059.34003504</v>
       </c>
     </row>
     <row r="22">
@@ -23161,28 +23161,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1584.785838277952</v>
+        <v>1657.062564198877</v>
       </c>
       <c r="AB22" t="n">
-        <v>2168.373899748668</v>
+        <v>2267.266104777783</v>
       </c>
       <c r="AC22" t="n">
-        <v>1961.427338088537</v>
+        <v>2050.881409865755</v>
       </c>
       <c r="AD22" t="n">
-        <v>1584785.838277952</v>
+        <v>1657062.564198877</v>
       </c>
       <c r="AE22" t="n">
-        <v>2168373.899748668</v>
+        <v>2267266.104777783</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.448595784223705e-06</v>
+        <v>2.462516825497427e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>15</v>
+        <v>14.09861111111111</v>
       </c>
       <c r="AH22" t="n">
-        <v>1961427.338088537</v>
+        <v>2050881.409865755</v>
       </c>
     </row>
     <row r="23">
@@ -23267,28 +23267,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1571.82181765949</v>
+        <v>1644.098543580415</v>
       </c>
       <c r="AB23" t="n">
-        <v>2150.635954806263</v>
+        <v>2249.528159835379</v>
       </c>
       <c r="AC23" t="n">
-        <v>1945.382277716073</v>
+        <v>2034.836349493291</v>
       </c>
       <c r="AD23" t="n">
-        <v>1571821.81765949</v>
+        <v>1644098.543580414</v>
       </c>
       <c r="AE23" t="n">
-        <v>2150635.954806263</v>
+        <v>2249528.159835379</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.450654493083631e-06</v>
+        <v>2.466016494115533e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>15</v>
+        <v>14.07916666666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>1945382.277716073</v>
+        <v>2034836.349493291</v>
       </c>
     </row>
     <row r="24">
@@ -23373,28 +23373,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>1566.721649238269</v>
+        <v>1638.998375159194</v>
       </c>
       <c r="AB24" t="n">
-        <v>2143.657679368798</v>
+        <v>2242.549884397913</v>
       </c>
       <c r="AC24" t="n">
-        <v>1939.069999092288</v>
+        <v>2028.524070869506</v>
       </c>
       <c r="AD24" t="n">
-        <v>1566721.649238269</v>
+        <v>1638998.375159194</v>
       </c>
       <c r="AE24" t="n">
-        <v>2143657.679368798</v>
+        <v>2242549.884397913</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.451683847513594e-06</v>
+        <v>2.467766328424586e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>15</v>
+        <v>14.06944444444444</v>
       </c>
       <c r="AH24" t="n">
-        <v>1939069.999092288</v>
+        <v>2028524.070869506</v>
       </c>
     </row>
     <row r="25">
@@ -23479,28 +23479,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>1573.101123184616</v>
+        <v>1645.377849105541</v>
       </c>
       <c r="AB25" t="n">
-        <v>2152.386357064718</v>
+        <v>2251.278562093833</v>
       </c>
       <c r="AC25" t="n">
-        <v>1946.965624039685</v>
+        <v>2036.419695816904</v>
       </c>
       <c r="AD25" t="n">
-        <v>1573101.123184616</v>
+        <v>1645377.849105541</v>
       </c>
       <c r="AE25" t="n">
-        <v>2152386.357064718</v>
+        <v>2251278.562093833</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.45138974624789e-06</v>
+        <v>2.467266375764857e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>15</v>
+        <v>14.07083333333333</v>
       </c>
       <c r="AH25" t="n">
-        <v>1946965.624039685</v>
+        <v>2036419.695816904</v>
       </c>
     </row>
   </sheetData>
@@ -23776,28 +23776,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3510.773760431458</v>
+        <v>3635.594322271888</v>
       </c>
       <c r="AB2" t="n">
-        <v>4803.595543429712</v>
+        <v>4974.380542834344</v>
       </c>
       <c r="AC2" t="n">
-        <v>4345.147126653287</v>
+        <v>4499.632645412987</v>
       </c>
       <c r="AD2" t="n">
-        <v>3510773.760431457</v>
+        <v>3635594.322271888</v>
       </c>
       <c r="AE2" t="n">
-        <v>4803595.543429712</v>
+        <v>4974380.542834344</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.927922641805406e-07</v>
+        <v>1.609915722627546e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.74583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4345147.126653288</v>
+        <v>4499632.645412987</v>
       </c>
     </row>
     <row r="3">
@@ -23882,28 +23882,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1959.900299681262</v>
+        <v>2046.373616931648</v>
       </c>
       <c r="AB3" t="n">
-        <v>2681.622054722752</v>
+        <v>2799.938662318243</v>
       </c>
       <c r="AC3" t="n">
-        <v>2425.691809500204</v>
+        <v>2532.716446125183</v>
       </c>
       <c r="AD3" t="n">
-        <v>1959900.299681262</v>
+        <v>2046373.616931648</v>
       </c>
       <c r="AE3" t="n">
-        <v>2681622.054722752</v>
+        <v>2799938.662318243</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.249145555656736e-06</v>
+        <v>2.25250503458152e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.68888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>2425691.809500204</v>
+        <v>2532716.446125183</v>
       </c>
     </row>
     <row r="4">
@@ -23988,28 +23988,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1660.144322428449</v>
+        <v>1736.924241971661</v>
       </c>
       <c r="AB4" t="n">
-        <v>2271.482702345062</v>
+        <v>2376.536375555071</v>
       </c>
       <c r="AC4" t="n">
-        <v>2054.695581279244</v>
+        <v>2149.723079361847</v>
       </c>
       <c r="AD4" t="n">
-        <v>1660144.32242845</v>
+        <v>1736924.241971661</v>
       </c>
       <c r="AE4" t="n">
-        <v>2271482.702345062</v>
+        <v>2376536.375555071</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.374505552836755e-06</v>
+        <v>2.478558774679614e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.075</v>
       </c>
       <c r="AH4" t="n">
-        <v>2054695.581279244</v>
+        <v>2149723.079361847</v>
       </c>
     </row>
     <row r="5">
@@ -24094,28 +24094,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1518.905196339791</v>
+        <v>1595.599775028431</v>
       </c>
       <c r="AB5" t="n">
-        <v>2078.233099000081</v>
+        <v>2183.170005087893</v>
       </c>
       <c r="AC5" t="n">
-        <v>1879.889448849987</v>
+        <v>1974.81132390065</v>
       </c>
       <c r="AD5" t="n">
-        <v>1518905.196339791</v>
+        <v>1595599.775028431</v>
       </c>
       <c r="AE5" t="n">
-        <v>2078233.099000081</v>
+        <v>2183170.005087893</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.438776414335141e-06</v>
+        <v>2.59445434701417e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.35555555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>1879889.448849987</v>
+        <v>1974811.32390065</v>
       </c>
     </row>
     <row r="6">
@@ -24200,28 +24200,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1429.12887868544</v>
+        <v>1505.908708720101</v>
       </c>
       <c r="AB6" t="n">
-        <v>1955.397180533792</v>
+        <v>2060.450731274253</v>
       </c>
       <c r="AC6" t="n">
-        <v>1768.776818040826</v>
+        <v>1863.804205342201</v>
       </c>
       <c r="AD6" t="n">
-        <v>1429128.87868544</v>
+        <v>1505908.708720101</v>
       </c>
       <c r="AE6" t="n">
-        <v>1955397.180533792</v>
+        <v>2060450.731274253</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.4783889007537e-06</v>
+        <v>2.66588503392334e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.94444444444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>1768776.818040826</v>
+        <v>1863804.205342201</v>
       </c>
     </row>
     <row r="7">
@@ -24306,28 +24306,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1370.251416563318</v>
+        <v>1447.031246597979</v>
       </c>
       <c r="AB7" t="n">
-        <v>1874.838439367998</v>
+        <v>1979.891990108458</v>
       </c>
       <c r="AC7" t="n">
-        <v>1695.906490066991</v>
+        <v>1790.933877368367</v>
       </c>
       <c r="AD7" t="n">
-        <v>1370251.416563318</v>
+        <v>1447031.246597979</v>
       </c>
       <c r="AE7" t="n">
-        <v>1874838.439367998</v>
+        <v>1979891.990108458</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.50543357019609e-06</v>
+        <v>2.71465297277699e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.67777777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>1695906.490066991</v>
+        <v>1790933.877368367</v>
       </c>
     </row>
     <row r="8">
@@ -24412,28 +24412,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1324.62365400152</v>
+        <v>1391.795427183577</v>
       </c>
       <c r="AB8" t="n">
-        <v>1812.408521676128</v>
+        <v>1904.315905153304</v>
       </c>
       <c r="AC8" t="n">
-        <v>1639.434796098694</v>
+        <v>1722.570667889631</v>
       </c>
       <c r="AD8" t="n">
-        <v>1324623.65400152</v>
+        <v>1391795.427183577</v>
       </c>
       <c r="AE8" t="n">
-        <v>1812408.521676128</v>
+        <v>1904315.905153304</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.52388757993325e-06</v>
+        <v>2.747929919288892e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1639434.796098694</v>
+        <v>1722570.667889631</v>
       </c>
     </row>
     <row r="9">
@@ -24518,28 +24518,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1284.572771307766</v>
+        <v>1351.744544489823</v>
       </c>
       <c r="AB9" t="n">
-        <v>1757.609137054292</v>
+        <v>1849.516520531469</v>
       </c>
       <c r="AC9" t="n">
-        <v>1589.865387833747</v>
+        <v>1673.001259624685</v>
       </c>
       <c r="AD9" t="n">
-        <v>1284572.771307766</v>
+        <v>1351744.544489823</v>
       </c>
       <c r="AE9" t="n">
-        <v>1757609.137054292</v>
+        <v>1849516.520531469</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.538523518690308e-06</v>
+        <v>2.774321980315573e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.3625</v>
       </c>
       <c r="AH9" t="n">
-        <v>1589865.387833747</v>
+        <v>1673001.259624685</v>
       </c>
     </row>
     <row r="10">
@@ -24624,28 +24624,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1249.208237056731</v>
+        <v>1316.380010238788</v>
       </c>
       <c r="AB10" t="n">
-        <v>1709.221821118886</v>
+        <v>1801.129204596063</v>
       </c>
       <c r="AC10" t="n">
-        <v>1546.096089419192</v>
+        <v>1629.23196121013</v>
       </c>
       <c r="AD10" t="n">
-        <v>1249208.237056731</v>
+        <v>1316380.010238788</v>
       </c>
       <c r="AE10" t="n">
-        <v>1709221.821118886</v>
+        <v>1801129.204596063</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.550295904212289e-06</v>
+        <v>2.795550377228338e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.25277777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>1546096.089419192</v>
+        <v>1629231.96121013</v>
       </c>
     </row>
     <row r="11">
@@ -24730,28 +24730,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1230.979806495792</v>
+        <v>1298.151579677849</v>
       </c>
       <c r="AB11" t="n">
-        <v>1684.28087824381</v>
+        <v>1776.188261720986</v>
       </c>
       <c r="AC11" t="n">
-        <v>1523.535475127279</v>
+        <v>1606.671346918217</v>
       </c>
       <c r="AD11" t="n">
-        <v>1230979.806495792</v>
+        <v>1298151.579677849</v>
       </c>
       <c r="AE11" t="n">
-        <v>1684280.87824381</v>
+        <v>1776188.261720987</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.555863924391605e-06</v>
+        <v>2.805590835227619e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.20138888888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>1523535.475127279</v>
+        <v>1606671.346918217</v>
       </c>
     </row>
     <row r="12">
@@ -24836,28 +24836,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1236.788498502335</v>
+        <v>1303.960271684392</v>
       </c>
       <c r="AB12" t="n">
-        <v>1692.228586908567</v>
+        <v>1784.135970385744</v>
       </c>
       <c r="AC12" t="n">
-        <v>1530.724665631752</v>
+        <v>1613.86053742269</v>
       </c>
       <c r="AD12" t="n">
-        <v>1236788.498502335</v>
+        <v>1303960.271684392</v>
       </c>
       <c r="AE12" t="n">
-        <v>1692228.586908567</v>
+        <v>1784135.970385744</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.555704838100767e-06</v>
+        <v>2.805303964999068e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.20277777777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>1530724.665631752</v>
+        <v>1613860.53742269</v>
       </c>
     </row>
   </sheetData>
@@ -25133,28 +25133,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2393.097372618317</v>
+        <v>2494.695705911964</v>
       </c>
       <c r="AB2" t="n">
-        <v>3274.341401221468</v>
+        <v>3413.35272303597</v>
       </c>
       <c r="AC2" t="n">
-        <v>2961.842853455787</v>
+        <v>3087.587129819924</v>
       </c>
       <c r="AD2" t="n">
-        <v>2393097.372618317</v>
+        <v>2494695.705911964</v>
       </c>
       <c r="AE2" t="n">
-        <v>3274341.401221468</v>
+        <v>3413352.723035971</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.075657233167369e-06</v>
+        <v>2.00683257106727e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.39861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>2961842.853455787</v>
+        <v>3087587.129819924</v>
       </c>
     </row>
     <row r="3">
@@ -25239,28 +25239,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1523.043532008409</v>
+        <v>1606.223675649124</v>
       </c>
       <c r="AB3" t="n">
-        <v>2083.895352432368</v>
+        <v>2197.70609461054</v>
       </c>
       <c r="AC3" t="n">
-        <v>1885.011304761719</v>
+        <v>1987.960109440786</v>
       </c>
       <c r="AD3" t="n">
-        <v>1523043.532008409</v>
+        <v>1606223.675649123</v>
       </c>
       <c r="AE3" t="n">
-        <v>2083895.352432368</v>
+        <v>2197706.09461054</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.386041765246014e-06</v>
+        <v>2.585910895764389e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.60416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1885011.304761719</v>
+        <v>1987960.109440786</v>
       </c>
     </row>
     <row r="4">
@@ -25345,28 +25345,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1319.992798475606</v>
+        <v>1393.835970270824</v>
       </c>
       <c r="AB4" t="n">
-        <v>1806.072380846645</v>
+        <v>1907.107866227683</v>
       </c>
       <c r="AC4" t="n">
-        <v>1633.703367657148</v>
+        <v>1725.096168117613</v>
       </c>
       <c r="AD4" t="n">
-        <v>1319992.798475606</v>
+        <v>1393835.970270823</v>
       </c>
       <c r="AE4" t="n">
-        <v>1806072.380846645</v>
+        <v>1907107.866227682</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.493590917044754e-06</v>
+        <v>2.7865632357155e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.40972222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>1633703.367657148</v>
+        <v>1725096.168117613</v>
       </c>
     </row>
     <row r="5">
@@ -25451,28 +25451,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1212.312931337485</v>
+        <v>1286.241354478723</v>
       </c>
       <c r="AB5" t="n">
-        <v>1658.740036127804</v>
+        <v>1759.892166161491</v>
       </c>
       <c r="AC5" t="n">
-        <v>1500.432215136028</v>
+        <v>1591.930527847206</v>
       </c>
       <c r="AD5" t="n">
-        <v>1212312.931337485</v>
+        <v>1286241.354478723</v>
       </c>
       <c r="AE5" t="n">
-        <v>1658740.036127804</v>
+        <v>1759892.166161491</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.548608356793879e-06</v>
+        <v>2.889208192362293e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.8625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1500432.215136028</v>
+        <v>1591930.527847206</v>
       </c>
     </row>
     <row r="6">
@@ -25557,28 +25557,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1144.910772925492</v>
+        <v>1218.83919606673</v>
       </c>
       <c r="AB6" t="n">
-        <v>1566.517429415149</v>
+        <v>1667.669559448836</v>
       </c>
       <c r="AC6" t="n">
-        <v>1417.011204572788</v>
+        <v>1508.509517283966</v>
       </c>
       <c r="AD6" t="n">
-        <v>1144910.772925492</v>
+        <v>1218839.19606673</v>
       </c>
       <c r="AE6" t="n">
-        <v>1566517.429415149</v>
+        <v>1667669.559448836</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.582414253507196e-06</v>
+        <v>2.952279189819961e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.54583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1417011.204572788</v>
+        <v>1508509.517283966</v>
       </c>
     </row>
     <row r="7">
@@ -25663,28 +25663,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1095.226387336354</v>
+        <v>1159.903179486667</v>
       </c>
       <c r="AB7" t="n">
-        <v>1498.537061131697</v>
+        <v>1587.030701490447</v>
       </c>
       <c r="AC7" t="n">
-        <v>1355.518787227262</v>
+        <v>1435.566718751777</v>
       </c>
       <c r="AD7" t="n">
-        <v>1095226.387336354</v>
+        <v>1159903.179486667</v>
       </c>
       <c r="AE7" t="n">
-        <v>1498537.061131697</v>
+        <v>1587030.701490447</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.602631505463199e-06</v>
+        <v>2.989998119672095e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.3625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1355518.787227262</v>
+        <v>1435566.718751777</v>
       </c>
     </row>
     <row r="8">
@@ -25769,28 +25769,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1097.223507213359</v>
+        <v>1161.900299363672</v>
       </c>
       <c r="AB8" t="n">
-        <v>1501.269608654126</v>
+        <v>1589.763249012876</v>
       </c>
       <c r="AC8" t="n">
-        <v>1357.990544249305</v>
+        <v>1438.038475773819</v>
       </c>
       <c r="AD8" t="n">
-        <v>1097223.507213359</v>
+        <v>1161900.299363672</v>
       </c>
       <c r="AE8" t="n">
-        <v>1501269.608654126</v>
+        <v>1589763.249012876</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.604951517982741e-06</v>
+        <v>2.994326521458406e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.34027777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>1357990.544249305</v>
+        <v>1438038.475773819</v>
       </c>
     </row>
   </sheetData>
@@ -48279,28 +48279,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1776.986123702367</v>
+        <v>1866.483757966702</v>
       </c>
       <c r="AB2" t="n">
-        <v>2431.350809544509</v>
+        <v>2553.805421101934</v>
       </c>
       <c r="AC2" t="n">
-        <v>2199.306100703873</v>
+        <v>2310.073816000385</v>
       </c>
       <c r="AD2" t="n">
-        <v>1776986.123702368</v>
+        <v>1866483.757966702</v>
       </c>
       <c r="AE2" t="n">
-        <v>2431350.809544509</v>
+        <v>2553805.421101934</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.227058174352023e-06</v>
+        <v>2.359678373022972e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.40416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2199306.100703873</v>
+        <v>2310073.816000385</v>
       </c>
     </row>
     <row r="3">
@@ -48385,28 +48385,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1222.116614541641</v>
+        <v>1302.647336650932</v>
       </c>
       <c r="AB3" t="n">
-        <v>1672.153867995708</v>
+        <v>1782.339554750358</v>
       </c>
       <c r="AC3" t="n">
-        <v>1512.565849716891</v>
+        <v>1612.235569174259</v>
       </c>
       <c r="AD3" t="n">
-        <v>1222116.614541641</v>
+        <v>1302647.336650932</v>
       </c>
       <c r="AE3" t="n">
-        <v>1672153.867995708</v>
+        <v>1782339.554750358</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.499280636055154e-06</v>
+        <v>2.883172261869085e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.88055555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>1512565.849716891</v>
+        <v>1612235.569174259</v>
       </c>
     </row>
     <row r="4">
@@ -48491,28 +48491,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1067.340495806571</v>
+        <v>1138.98973612394</v>
       </c>
       <c r="AB4" t="n">
-        <v>1460.382354101939</v>
+        <v>1558.41600564556</v>
       </c>
       <c r="AC4" t="n">
-        <v>1321.005511885957</v>
+        <v>1409.682969317348</v>
       </c>
       <c r="AD4" t="n">
-        <v>1067340.495806571</v>
+        <v>1138989.73612394</v>
       </c>
       <c r="AE4" t="n">
-        <v>1460382.354101939</v>
+        <v>1558416.00564556</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.592878535356104e-06</v>
+        <v>3.063164493172597e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.94722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>1321005.511885957</v>
+        <v>1409682.969317348</v>
       </c>
     </row>
     <row r="5">
@@ -48597,28 +48597,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>989.3969488645467</v>
+        <v>1061.046189181917</v>
       </c>
       <c r="AB5" t="n">
-        <v>1353.736554549257</v>
+        <v>1451.770206092878</v>
       </c>
       <c r="AC5" t="n">
-        <v>1224.537837764263</v>
+        <v>1313.215295195654</v>
       </c>
       <c r="AD5" t="n">
-        <v>989396.9488645467</v>
+        <v>1061046.189181917</v>
       </c>
       <c r="AE5" t="n">
-        <v>1353736.554549257</v>
+        <v>1451770.206092878</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.637106114146663e-06</v>
+        <v>3.148215767305026e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.54305555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>1224537.837764263</v>
+        <v>1313215.295195654</v>
       </c>
     </row>
     <row r="6">
@@ -48703,28 +48703,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>994.3192279424309</v>
+        <v>1065.968468259801</v>
       </c>
       <c r="AB6" t="n">
-        <v>1360.471433939245</v>
+        <v>1458.505085482866</v>
       </c>
       <c r="AC6" t="n">
-        <v>1230.629949717733</v>
+        <v>1319.307407149124</v>
       </c>
       <c r="AD6" t="n">
-        <v>994319.2279424309</v>
+        <v>1065968.468259801</v>
       </c>
       <c r="AE6" t="n">
-        <v>1360471.433939245</v>
+        <v>1458505.085482866</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.638306087214624e-06</v>
+        <v>3.150523360014045e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.53333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1230629.949717733</v>
+        <v>1319307.407149124</v>
       </c>
     </row>
   </sheetData>
@@ -49000,28 +49000,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>911.8241284913314</v>
+        <v>978.9554111461317</v>
       </c>
       <c r="AB2" t="n">
-        <v>1247.597999443321</v>
+        <v>1339.449981994789</v>
       </c>
       <c r="AC2" t="n">
-        <v>1128.528997391239</v>
+        <v>1211.614755643063</v>
       </c>
       <c r="AD2" t="n">
-        <v>911824.1284913314</v>
+        <v>978955.4111461317</v>
       </c>
       <c r="AE2" t="n">
-        <v>1247597.999443321</v>
+        <v>1339449.981994789</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.561715796857439e-06</v>
+        <v>3.221193942759628e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.36388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1128528.99739124</v>
+        <v>1211614.755643063</v>
       </c>
     </row>
     <row r="3">
@@ -49106,28 +49106,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>796.1559308537369</v>
+        <v>863.2018726539659</v>
       </c>
       <c r="AB3" t="n">
-        <v>1089.335668514831</v>
+        <v>1181.070883944101</v>
       </c>
       <c r="AC3" t="n">
-        <v>985.3710012039877</v>
+        <v>1068.351136423872</v>
       </c>
       <c r="AD3" t="n">
-        <v>796155.9308537369</v>
+        <v>863201.8726539658</v>
       </c>
       <c r="AE3" t="n">
-        <v>1089335.668514831</v>
+        <v>1181070.883944101</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.664198796250652e-06</v>
+        <v>3.432575307759287e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.35555555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>985371.0012039877</v>
+        <v>1068351.136423872</v>
       </c>
     </row>
   </sheetData>
@@ -49403,28 +49403,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5012.191075817381</v>
+        <v>5160.759124515622</v>
       </c>
       <c r="AB2" t="n">
-        <v>6857.900952197972</v>
+        <v>7061.17831078664</v>
       </c>
       <c r="AC2" t="n">
-        <v>6203.392510444378</v>
+        <v>6387.269363230899</v>
       </c>
       <c r="AD2" t="n">
-        <v>5012191.075817381</v>
+        <v>5160759.124515622</v>
       </c>
       <c r="AE2" t="n">
-        <v>6857900.952197973</v>
+        <v>7061178.31078664</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.42883080001861e-07</v>
+        <v>1.305216266478138e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.76527777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>6203392.510444378</v>
+        <v>6387269.363230899</v>
       </c>
     </row>
     <row r="3">
@@ -49509,28 +49509,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2417.380250826497</v>
+        <v>2516.397169673799</v>
       </c>
       <c r="AB3" t="n">
-        <v>3307.566306470881</v>
+        <v>3443.045623155928</v>
       </c>
       <c r="AC3" t="n">
-        <v>2991.896820379642</v>
+        <v>3114.446181226678</v>
       </c>
       <c r="AD3" t="n">
-        <v>2417380.250826497</v>
+        <v>2516397.1696738</v>
       </c>
       <c r="AE3" t="n">
-        <v>3307566.306470881</v>
+        <v>3443045.623155928</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.134943164476746e-06</v>
+        <v>1.994050369002226e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.83055555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>2991896.820379642</v>
+        <v>3114446.181226678</v>
       </c>
     </row>
     <row r="4">
@@ -49615,28 +49615,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1982.914440387193</v>
+        <v>2072.021133264308</v>
       </c>
       <c r="AB4" t="n">
-        <v>2713.111017348838</v>
+        <v>2835.030725653153</v>
       </c>
       <c r="AC4" t="n">
-        <v>2454.175509728293</v>
+        <v>2564.459372187429</v>
       </c>
       <c r="AD4" t="n">
-        <v>1982914.440387193</v>
+        <v>2072021.133264308</v>
       </c>
       <c r="AE4" t="n">
-        <v>2713111.017348838</v>
+        <v>2835030.725653153</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.275426232422416e-06</v>
+        <v>2.240873577638212e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.75555555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>2454175.509728293</v>
+        <v>2564459.372187429</v>
       </c>
     </row>
     <row r="5">
@@ -49721,28 +49721,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1797.264971251071</v>
+        <v>1886.286323273614</v>
       </c>
       <c r="AB5" t="n">
-        <v>2459.097223400258</v>
+        <v>2580.900164582375</v>
       </c>
       <c r="AC5" t="n">
-        <v>2224.404435763567</v>
+        <v>2334.582675190763</v>
       </c>
       <c r="AD5" t="n">
-        <v>1797264.971251071</v>
+        <v>1886286.323273614</v>
       </c>
       <c r="AE5" t="n">
-        <v>2459097.223400258</v>
+        <v>2580900.164582375</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.348360486755656e-06</v>
+        <v>2.369016185407606e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.85</v>
       </c>
       <c r="AH5" t="n">
-        <v>2224404.435763567</v>
+        <v>2334582.675190764</v>
       </c>
     </row>
     <row r="6">
@@ -49827,28 +49827,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1695.444406463514</v>
+        <v>1774.555622024421</v>
       </c>
       <c r="AB6" t="n">
-        <v>2319.781834651634</v>
+        <v>2428.025289922576</v>
       </c>
       <c r="AC6" t="n">
-        <v>2098.385112186735</v>
+        <v>2196.297964007262</v>
       </c>
       <c r="AD6" t="n">
-        <v>1695444.406463514</v>
+        <v>1774555.622024421</v>
       </c>
       <c r="AE6" t="n">
-        <v>2319781.834651634</v>
+        <v>2428025.289922576</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.39344431907557e-06</v>
+        <v>2.44822670033679e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.33611111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>2098385.112186735</v>
+        <v>2196297.964007262</v>
       </c>
     </row>
     <row r="7">
@@ -49933,28 +49933,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1626.671042077931</v>
+        <v>1696.042713377793</v>
       </c>
       <c r="AB7" t="n">
-        <v>2225.683083432576</v>
+        <v>2320.60046456719</v>
       </c>
       <c r="AC7" t="n">
-        <v>2013.267013715597</v>
+        <v>2099.125613212104</v>
       </c>
       <c r="AD7" t="n">
-        <v>1626671.042077931</v>
+        <v>1696042.713377794</v>
       </c>
       <c r="AE7" t="n">
-        <v>2225683.083432576</v>
+        <v>2320600.46456719</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.42391052658186e-06</v>
+        <v>2.50175462510122e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.00833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2013267.013715597</v>
+        <v>2099125.613212104</v>
       </c>
     </row>
     <row r="8">
@@ -50039,28 +50039,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1564.198871401677</v>
+        <v>1643.395338308605</v>
       </c>
       <c r="AB8" t="n">
-        <v>2140.20590343567</v>
+        <v>2248.566003359261</v>
       </c>
       <c r="AC8" t="n">
-        <v>1935.94765580962</v>
+        <v>2033.966019880859</v>
       </c>
       <c r="AD8" t="n">
-        <v>1564198.871401677</v>
+        <v>1643395.338308605</v>
       </c>
       <c r="AE8" t="n">
-        <v>2140205.90343567</v>
+        <v>2248566.003359261</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.446221638139497e-06</v>
+        <v>2.540954367984263e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.77638888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>1935947.65580962</v>
+        <v>2033966.019880859</v>
       </c>
     </row>
     <row r="9">
@@ -50145,28 +50145,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1522.484358536233</v>
+        <v>1601.68082544316</v>
       </c>
       <c r="AB9" t="n">
-        <v>2083.130266618744</v>
+        <v>2191.490366542335</v>
       </c>
       <c r="AC9" t="n">
-        <v>1884.319237664342</v>
+        <v>1982.337601735581</v>
       </c>
       <c r="AD9" t="n">
-        <v>1522484.358536232</v>
+        <v>1601680.82544316</v>
       </c>
       <c r="AE9" t="n">
-        <v>2083130.266618744</v>
+        <v>2191490.366542335</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.462531830036804e-06</v>
+        <v>2.569610731747039e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.61111111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>1884319.237664342</v>
+        <v>1982337.601735581</v>
       </c>
     </row>
     <row r="10">
@@ -50251,28 +50251,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1486.520945635408</v>
+        <v>1555.807276080699</v>
       </c>
       <c r="AB10" t="n">
-        <v>2033.923538494034</v>
+        <v>2128.72415250645</v>
       </c>
       <c r="AC10" t="n">
-        <v>1839.808730609778</v>
+        <v>1925.561707074346</v>
       </c>
       <c r="AD10" t="n">
-        <v>1486520.945635407</v>
+        <v>1555807.276080699</v>
       </c>
       <c r="AE10" t="n">
-        <v>2033923.538494034</v>
+        <v>2128724.15250645</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.476380106176027e-06</v>
+        <v>2.593941606639962e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.475</v>
       </c>
       <c r="AH10" t="n">
-        <v>1839808.730609778</v>
+        <v>1925561.707074346</v>
       </c>
     </row>
     <row r="11">
@@ -50357,28 +50357,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1454.46418018108</v>
+        <v>1523.750510626371</v>
       </c>
       <c r="AB11" t="n">
-        <v>1990.062057754744</v>
+        <v>2084.86267176716</v>
       </c>
       <c r="AC11" t="n">
-        <v>1800.133328032271</v>
+        <v>1885.886304496839</v>
       </c>
       <c r="AD11" t="n">
-        <v>1454464.18018108</v>
+        <v>1523750.510626371</v>
       </c>
       <c r="AE11" t="n">
-        <v>1990062.057754744</v>
+        <v>2084862.671767159</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.487150987617644e-06</v>
+        <v>2.612865620445569e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.36944444444444</v>
       </c>
       <c r="AH11" t="n">
-        <v>1800133.328032271</v>
+        <v>1885886.304496839</v>
       </c>
     </row>
     <row r="12">
@@ -50463,28 +50463,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1426.940893660149</v>
+        <v>1496.22722410544</v>
       </c>
       <c r="AB12" t="n">
-        <v>1952.403482895101</v>
+        <v>2047.204096907517</v>
       </c>
       <c r="AC12" t="n">
-        <v>1766.068834703091</v>
+        <v>1851.821811167659</v>
       </c>
       <c r="AD12" t="n">
-        <v>1426940.893660149</v>
+        <v>1496227.22410544</v>
       </c>
       <c r="AE12" t="n">
-        <v>1952403.482895101</v>
+        <v>2047204.096907517</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.495613823036058e-06</v>
+        <v>2.627734488435688e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.28888888888889</v>
       </c>
       <c r="AH12" t="n">
-        <v>1766068.834703091</v>
+        <v>1851821.811167659</v>
       </c>
     </row>
     <row r="13">
@@ -50569,28 +50569,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1399.985847203834</v>
+        <v>1469.272177649125</v>
       </c>
       <c r="AB13" t="n">
-        <v>1915.522399160849</v>
+        <v>2010.323013173265</v>
       </c>
       <c r="AC13" t="n">
-        <v>1732.70762983751</v>
+        <v>1818.460606302078</v>
       </c>
       <c r="AD13" t="n">
-        <v>1399985.847203834</v>
+        <v>1469272.177649125</v>
       </c>
       <c r="AE13" t="n">
-        <v>1915522.399160849</v>
+        <v>2010323.013173265</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.502076351901029e-06</v>
+        <v>2.639088896719052e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.22777777777778</v>
       </c>
       <c r="AH13" t="n">
-        <v>1732707.62983751</v>
+        <v>1818460.606302078</v>
       </c>
     </row>
     <row r="14">
@@ -50675,28 +50675,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1375.070148127084</v>
+        <v>1444.356478572375</v>
       </c>
       <c r="AB14" t="n">
-        <v>1881.431640480975</v>
+        <v>1976.23225449339</v>
       </c>
       <c r="AC14" t="n">
-        <v>1701.870445319362</v>
+        <v>1787.62342178393</v>
       </c>
       <c r="AD14" t="n">
-        <v>1375070.148127084</v>
+        <v>1444356.478572375</v>
       </c>
       <c r="AE14" t="n">
-        <v>1881431.640480975</v>
+        <v>1976232.25449339</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.50869275050088e-06</v>
+        <v>2.650713648056782e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.16527777777778</v>
       </c>
       <c r="AH14" t="n">
-        <v>1701870.445319362</v>
+        <v>1787623.42178393</v>
       </c>
     </row>
     <row r="15">
@@ -50781,28 +50781,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1359.130626301876</v>
+        <v>1428.416956747167</v>
       </c>
       <c r="AB15" t="n">
-        <v>1859.622483517653</v>
+        <v>1954.423097530068</v>
       </c>
       <c r="AC15" t="n">
-        <v>1682.142723687275</v>
+        <v>1767.895700151844</v>
       </c>
       <c r="AD15" t="n">
-        <v>1359130.626301877</v>
+        <v>1428416.956747168</v>
       </c>
       <c r="AE15" t="n">
-        <v>1859622.483517653</v>
+        <v>1954423.097530068</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.512231754403126e-06</v>
+        <v>2.656931538307196e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.13333333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>1682142.723687275</v>
+        <v>1767895.700151843</v>
       </c>
     </row>
     <row r="16">
@@ -50887,28 +50887,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1360.30273834412</v>
+        <v>1429.589068789412</v>
       </c>
       <c r="AB16" t="n">
-        <v>1861.226218923784</v>
+        <v>1956.0268329362</v>
       </c>
       <c r="AC16" t="n">
-        <v>1683.593400837103</v>
+        <v>1769.346377301671</v>
       </c>
       <c r="AD16" t="n">
-        <v>1360302.73834412</v>
+        <v>1429589.068789412</v>
       </c>
       <c r="AE16" t="n">
-        <v>1861226.218923784</v>
+        <v>1956026.8329362</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.513462712282168e-06</v>
+        <v>2.659094282742123e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.12083333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>1683593.400837103</v>
+        <v>1769346.377301671</v>
       </c>
     </row>
   </sheetData>
@@ -51184,28 +51184,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8118.45436720328</v>
+        <v>8313.183914170031</v>
       </c>
       <c r="AB2" t="n">
-        <v>11108.02742613711</v>
+        <v>11374.46498315834</v>
       </c>
       <c r="AC2" t="n">
-        <v>10047.89287880057</v>
+        <v>10288.90200932715</v>
       </c>
       <c r="AD2" t="n">
-        <v>8118454.367203279</v>
+        <v>8313183.914170031</v>
       </c>
       <c r="AE2" t="n">
-        <v>11108027.42613711</v>
+        <v>11374464.98315834</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.735229536706943e-07</v>
+        <v>9.806603360050431e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.90555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>10047892.87880057</v>
+        <v>10288902.00932715</v>
       </c>
     </row>
     <row r="3">
@@ -51290,28 +51290,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3110.362386356386</v>
+        <v>3223.114019998386</v>
       </c>
       <c r="AB3" t="n">
-        <v>4255.735036517071</v>
+        <v>4410.006795917074</v>
       </c>
       <c r="AC3" t="n">
-        <v>3849.573657593358</v>
+        <v>3989.121936797994</v>
       </c>
       <c r="AD3" t="n">
-        <v>3110362.386356386</v>
+        <v>3223114.019998386</v>
       </c>
       <c r="AE3" t="n">
-        <v>4255735.036517071</v>
+        <v>4410006.795917074</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.003220347604942e-06</v>
+        <v>1.715394993125678e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.52638888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>3849573.657593358</v>
+        <v>3989121.936797994</v>
       </c>
     </row>
     <row r="4">
@@ -51396,28 +51396,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2440.813362960751</v>
+        <v>2533.13452391249</v>
       </c>
       <c r="AB4" t="n">
-        <v>3339.628524288915</v>
+        <v>3465.946409625261</v>
       </c>
       <c r="AC4" t="n">
-        <v>3020.899065128726</v>
+        <v>3135.161348776833</v>
       </c>
       <c r="AD4" t="n">
-        <v>2440813.362960751</v>
+        <v>2533134.52391249</v>
       </c>
       <c r="AE4" t="n">
-        <v>3339628.524288915</v>
+        <v>3465946.409625261</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.161725010860881e-06</v>
+        <v>1.986420303153959e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.72638888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>3020899.065128726</v>
+        <v>3135161.348776833</v>
       </c>
     </row>
     <row r="5">
@@ -51502,28 +51502,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2178.549705633935</v>
+        <v>2270.785525731107</v>
       </c>
       <c r="AB5" t="n">
-        <v>2980.787818078201</v>
+        <v>3106.988936292525</v>
       </c>
       <c r="AC5" t="n">
-        <v>2696.305612282795</v>
+        <v>2810.462272899008</v>
       </c>
       <c r="AD5" t="n">
-        <v>2178549.705633936</v>
+        <v>2270785.525731107</v>
       </c>
       <c r="AE5" t="n">
-        <v>2980787.818078201</v>
+        <v>3106988.936292524</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.244758323698417e-06</v>
+        <v>2.128398014674855e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.54444444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>2696305.612282795</v>
+        <v>2810462.272899008</v>
       </c>
     </row>
     <row r="6">
@@ -51608,28 +51608,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2028.485752528599</v>
+        <v>2120.636231771196</v>
       </c>
       <c r="AB6" t="n">
-        <v>2775.46369708511</v>
+        <v>2901.548048177054</v>
       </c>
       <c r="AC6" t="n">
-        <v>2510.57733722307</v>
+        <v>2624.628374807297</v>
       </c>
       <c r="AD6" t="n">
-        <v>2028485.752528599</v>
+        <v>2120636.231771196</v>
       </c>
       <c r="AE6" t="n">
-        <v>2775463.69708511</v>
+        <v>2901548.048177054</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.296802417994801e-06</v>
+        <v>2.217387616003131e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.87916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2510577.33722307</v>
+        <v>2624628.374807297</v>
       </c>
     </row>
     <row r="7">
@@ -51714,28 +51714,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1938.651500583315</v>
+        <v>2020.544162562047</v>
       </c>
       <c r="AB7" t="n">
-        <v>2652.548510366085</v>
+        <v>2764.597663334651</v>
       </c>
       <c r="AC7" t="n">
-        <v>2399.393003411961</v>
+        <v>2500.748342483182</v>
       </c>
       <c r="AD7" t="n">
-        <v>1938651.500583315</v>
+        <v>2020544.162562047</v>
       </c>
       <c r="AE7" t="n">
-        <v>2652548.510366085</v>
+        <v>2764597.663334651</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.332091575950754e-06</v>
+        <v>2.277728143399511e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.45972222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>2399393.003411961</v>
+        <v>2500748.342483182</v>
       </c>
     </row>
     <row r="8">
@@ -51820,28 +51820,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1872.645064121907</v>
+        <v>1944.450501037367</v>
       </c>
       <c r="AB8" t="n">
-        <v>2562.235592001129</v>
+        <v>2660.482958621163</v>
       </c>
       <c r="AC8" t="n">
-        <v>2317.69942322078</v>
+        <v>2406.570199061644</v>
       </c>
       <c r="AD8" t="n">
-        <v>1872645.064121907</v>
+        <v>1944450.501037367</v>
       </c>
       <c r="AE8" t="n">
-        <v>2562235.592001129</v>
+        <v>2660482.958621163</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.358484307531257e-06</v>
+        <v>2.322856773132939e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.15972222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>2317699.42322078</v>
+        <v>2406570.199061643</v>
       </c>
     </row>
     <row r="9">
@@ -51926,28 +51926,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1811.20172257779</v>
+        <v>1893.179635902543</v>
       </c>
       <c r="AB9" t="n">
-        <v>2478.166101411551</v>
+        <v>2590.331899032766</v>
       </c>
       <c r="AC9" t="n">
-        <v>2241.6534068208</v>
+        <v>2343.114258142732</v>
       </c>
       <c r="AD9" t="n">
-        <v>1811201.72257779</v>
+        <v>1893179.635902543</v>
       </c>
       <c r="AE9" t="n">
-        <v>2478166.101411551</v>
+        <v>2590331.899032766</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.37850126687602e-06</v>
+        <v>2.357083542874583e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.93888888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>2241653.4068208</v>
+        <v>2343114.258142732</v>
       </c>
     </row>
     <row r="10">
@@ -52032,28 +52032,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1773.634676718186</v>
+        <v>1855.612590042939</v>
       </c>
       <c r="AB10" t="n">
-        <v>2426.765211925346</v>
+        <v>2538.931009546561</v>
       </c>
       <c r="AC10" t="n">
-        <v>2195.158146085556</v>
+        <v>2296.618997407489</v>
       </c>
       <c r="AD10" t="n">
-        <v>1773634.676718186</v>
+        <v>1855612.590042939</v>
       </c>
       <c r="AE10" t="n">
-        <v>2426765.211925346</v>
+        <v>2538931.009546561</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.392883822849664e-06</v>
+        <v>2.381676110763024e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.78472222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>2195158.146085557</v>
+        <v>2296618.997407489</v>
       </c>
     </row>
     <row r="11">
@@ -52138,28 +52138,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1741.882637453599</v>
+        <v>1823.860550778352</v>
       </c>
       <c r="AB11" t="n">
-        <v>2383.32067100243</v>
+        <v>2495.486468623644</v>
       </c>
       <c r="AC11" t="n">
-        <v>2155.859891173528</v>
+        <v>2257.320742495459</v>
       </c>
       <c r="AD11" t="n">
-        <v>1741882.637453599</v>
+        <v>1823860.550778352</v>
       </c>
       <c r="AE11" t="n">
-        <v>2383320.67100243</v>
+        <v>2495486.468623644</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.404300903364826e-06</v>
+        <v>2.401198046097147e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.66388888888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>2155859.891173528</v>
+        <v>2257320.74249546</v>
       </c>
     </row>
     <row r="12">
@@ -52244,28 +52244,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1710.794441438495</v>
+        <v>1792.772354763248</v>
       </c>
       <c r="AB12" t="n">
-        <v>2340.784429700152</v>
+        <v>2452.950227321367</v>
       </c>
       <c r="AC12" t="n">
-        <v>2117.38324904115</v>
+        <v>2218.844100363082</v>
       </c>
       <c r="AD12" t="n">
-        <v>1710794.441438495</v>
+        <v>1792772.354763248</v>
       </c>
       <c r="AE12" t="n">
-        <v>2340784.429700152</v>
+        <v>2452950.227321367</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.415569710107062e-06</v>
+        <v>2.420466449803554e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.54861111111111</v>
       </c>
       <c r="AH12" t="n">
-        <v>2117383.249041149</v>
+        <v>2218844.100363082</v>
       </c>
     </row>
     <row r="13">
@@ -52350,28 +52350,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1684.729329189592</v>
+        <v>1756.44942525048</v>
       </c>
       <c r="AB13" t="n">
-        <v>2305.120993209607</v>
+        <v>2403.251592707444</v>
       </c>
       <c r="AC13" t="n">
-        <v>2085.123480875315</v>
+        <v>2173.888633684239</v>
       </c>
       <c r="AD13" t="n">
-        <v>1684729.329189592</v>
+        <v>1756449.42525048</v>
       </c>
       <c r="AE13" t="n">
-        <v>2305120.993209607</v>
+        <v>2403251.592707444</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.423873041390816e-06</v>
+        <v>2.434664220955644e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.4625</v>
       </c>
       <c r="AH13" t="n">
-        <v>2085123.480875315</v>
+        <v>2173888.633684239</v>
       </c>
     </row>
     <row r="14">
@@ -52456,28 +52456,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1661.879017510875</v>
+        <v>1733.599113571763</v>
       </c>
       <c r="AB14" t="n">
-        <v>2273.856188686182</v>
+        <v>2371.986788184019</v>
       </c>
       <c r="AC14" t="n">
-        <v>2056.842545415177</v>
+        <v>2145.607698224101</v>
       </c>
       <c r="AD14" t="n">
-        <v>1661879.017510874</v>
+        <v>1733599.113571763</v>
       </c>
       <c r="AE14" t="n">
-        <v>2273856.188686182</v>
+        <v>2371986.788184019</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.431138456264101e-06</v>
+        <v>2.447087270713722e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.38888888888889</v>
       </c>
       <c r="AH14" t="n">
-        <v>2056842.545415177</v>
+        <v>2145607.698224101</v>
       </c>
     </row>
     <row r="15">
@@ -52562,28 +52562,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1640.547820401188</v>
+        <v>1712.267916462076</v>
       </c>
       <c r="AB15" t="n">
-        <v>2244.669903734709</v>
+        <v>2342.800503232546</v>
       </c>
       <c r="AC15" t="n">
-        <v>2030.441758536264</v>
+        <v>2119.206911345189</v>
       </c>
       <c r="AD15" t="n">
-        <v>1640547.820401188</v>
+        <v>1712267.916462076</v>
       </c>
       <c r="AE15" t="n">
-        <v>2244669.903734709</v>
+        <v>2342800.503232546</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.437069407181067e-06</v>
+        <v>2.457228535822358e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.33055555555556</v>
       </c>
       <c r="AH15" t="n">
-        <v>2030441.758536264</v>
+        <v>2119206.911345189</v>
       </c>
     </row>
     <row r="16">
@@ -52668,28 +52668,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1620.170354738941</v>
+        <v>1691.89045079983</v>
       </c>
       <c r="AB16" t="n">
-        <v>2216.788556225285</v>
+        <v>2314.919155723123</v>
       </c>
       <c r="AC16" t="n">
-        <v>2005.221367701423</v>
+        <v>2093.986520510348</v>
       </c>
       <c r="AD16" t="n">
-        <v>1620170.354738941</v>
+        <v>1691890.45079983</v>
       </c>
       <c r="AE16" t="n">
-        <v>2216788.556225285</v>
+        <v>2314919.155723123</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.442555536779262e-06</v>
+        <v>2.466609206047845e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.27638888888889</v>
       </c>
       <c r="AH16" t="n">
-        <v>2005221.367701423</v>
+        <v>2093986.520510348</v>
       </c>
     </row>
     <row r="17">
@@ -52774,28 +52774,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1601.290894773917</v>
+        <v>1673.010990834805</v>
       </c>
       <c r="AB17" t="n">
-        <v>2190.956846198149</v>
+        <v>2289.087445695986</v>
       </c>
       <c r="AC17" t="n">
-        <v>1981.854999824244</v>
+        <v>2070.620152633169</v>
       </c>
       <c r="AD17" t="n">
-        <v>1601290.894773917</v>
+        <v>1673010.990834805</v>
       </c>
       <c r="AE17" t="n">
-        <v>2190956.846198149</v>
+        <v>2289087.445695986</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.447152023739911e-06</v>
+        <v>2.474468686507038e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>14.23055555555555</v>
       </c>
       <c r="AH17" t="n">
-        <v>1981854.999824244</v>
+        <v>2070620.152633169</v>
       </c>
     </row>
     <row r="18">
@@ -52880,28 +52880,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1581.854245182042</v>
+        <v>1653.574341242931</v>
       </c>
       <c r="AB18" t="n">
-        <v>2164.362764742085</v>
+        <v>2262.493364239922</v>
       </c>
       <c r="AC18" t="n">
-        <v>1957.799020177319</v>
+        <v>2046.564172986244</v>
       </c>
       <c r="AD18" t="n">
-        <v>1581854.245182042</v>
+        <v>1653574.341242931</v>
       </c>
       <c r="AE18" t="n">
-        <v>2164362.764742085</v>
+        <v>2262493.364239922</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.452045058246409e-06</v>
+        <v>2.482835230221662e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>14.18333333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>1957799.020177319</v>
+        <v>2046564.172986244</v>
       </c>
     </row>
     <row r="19">
@@ -52986,28 +52986,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1564.283835739114</v>
+        <v>1636.003931800002</v>
       </c>
       <c r="AB19" t="n">
-        <v>2140.322155390513</v>
+        <v>2238.45275488835</v>
       </c>
       <c r="AC19" t="n">
-        <v>1936.052812841054</v>
+        <v>2024.817965649979</v>
       </c>
       <c r="AD19" t="n">
-        <v>1564283.835739114</v>
+        <v>1636003.931800002</v>
       </c>
       <c r="AE19" t="n">
-        <v>2140322.155390513</v>
+        <v>2238452.75488835</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.455158807477816e-06</v>
+        <v>2.488159394403696e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>14.15277777777778</v>
       </c>
       <c r="AH19" t="n">
-        <v>1936052.812841054</v>
+        <v>2024817.965649978</v>
       </c>
     </row>
     <row r="20">
@@ -53092,28 +53092,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1546.790543645686</v>
+        <v>1618.510639706574</v>
       </c>
       <c r="AB20" t="n">
-        <v>2116.387061398705</v>
+        <v>2214.517660896542</v>
       </c>
       <c r="AC20" t="n">
-        <v>1914.402050626708</v>
+        <v>2003.167203435633</v>
       </c>
       <c r="AD20" t="n">
-        <v>1546790.543645686</v>
+        <v>1618510.639706574</v>
       </c>
       <c r="AE20" t="n">
-        <v>2116387.061398705</v>
+        <v>2214517.660896542</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.459013925573845e-06</v>
+        <v>2.494751216724309e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>14.11527777777778</v>
       </c>
       <c r="AH20" t="n">
-        <v>1914402.050626708</v>
+        <v>2003167.203435633</v>
       </c>
     </row>
     <row r="21">
@@ -53198,28 +53198,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1528.806490923526</v>
+        <v>1600.526586984414</v>
       </c>
       <c r="AB21" t="n">
-        <v>2091.780487063834</v>
+        <v>2189.911086561671</v>
       </c>
       <c r="AC21" t="n">
-        <v>1892.143893210814</v>
+        <v>1980.909046019739</v>
       </c>
       <c r="AD21" t="n">
-        <v>1528806.490923526</v>
+        <v>1600526.586984414</v>
       </c>
       <c r="AE21" t="n">
-        <v>2091780.487063834</v>
+        <v>2189911.086561671</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.462127674805252e-06</v>
+        <v>2.500075380906342e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>15</v>
+        <v>14.08472222222222</v>
       </c>
       <c r="AH21" t="n">
-        <v>1892143.893210814</v>
+        <v>1980909.046019739</v>
       </c>
     </row>
     <row r="22">
@@ -53304,28 +53304,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1524.73283489613</v>
+        <v>1596.452930957019</v>
       </c>
       <c r="AB22" t="n">
-        <v>2086.206731170132</v>
+        <v>2184.337330667969</v>
       </c>
       <c r="AC22" t="n">
-        <v>1887.102088756791</v>
+        <v>1975.867241565716</v>
       </c>
       <c r="AD22" t="n">
-        <v>1524732.83489613</v>
+        <v>1596452.930957019</v>
       </c>
       <c r="AE22" t="n">
-        <v>2086206.731170132</v>
+        <v>2184337.330667969</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.463165591215722e-06</v>
+        <v>2.501850102300353e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>15</v>
+        <v>14.075</v>
       </c>
       <c r="AH22" t="n">
-        <v>1887102.088756791</v>
+        <v>1975867.241565716</v>
       </c>
     </row>
     <row r="23">
@@ -53410,28 +53410,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1530.191883846388</v>
+        <v>1601.911979907276</v>
       </c>
       <c r="AB23" t="n">
-        <v>2093.676042780117</v>
+        <v>2191.806642277954</v>
       </c>
       <c r="AC23" t="n">
-        <v>1893.858539749964</v>
+        <v>1982.623692558888</v>
       </c>
       <c r="AD23" t="n">
-        <v>1530191.883846388</v>
+        <v>1601911.979907276</v>
       </c>
       <c r="AE23" t="n">
-        <v>2093676.042780117</v>
+        <v>2191806.642277954</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.462720769896949e-06</v>
+        <v>2.501089507417206e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>15</v>
+        <v>14.07916666666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>1893858.539749964</v>
+        <v>1982623.692558889</v>
       </c>
     </row>
   </sheetData>
@@ -53707,28 +53707,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>696.0331357672585</v>
+        <v>761.051312155216</v>
       </c>
       <c r="AB2" t="n">
-        <v>952.3432431715355</v>
+        <v>1041.30398050504</v>
       </c>
       <c r="AC2" t="n">
-        <v>861.4529406653801</v>
+        <v>941.9233900849536</v>
       </c>
       <c r="AD2" t="n">
-        <v>696033.1357672585</v>
+        <v>761051.312155216</v>
       </c>
       <c r="AE2" t="n">
-        <v>952343.2431715355</v>
+        <v>1041303.98050504</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.62954417758874e-06</v>
+        <v>3.492863725077328e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.23888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>861452.9406653801</v>
+        <v>941923.3900849535</v>
       </c>
     </row>
   </sheetData>
@@ -54004,28 +54004,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2736.063505655028</v>
+        <v>2848.346500300818</v>
       </c>
       <c r="AB2" t="n">
-        <v>3743.602795040249</v>
+        <v>3897.233341890744</v>
       </c>
       <c r="AC2" t="n">
-        <v>3386.318598460988</v>
+        <v>3525.286861541893</v>
       </c>
       <c r="AD2" t="n">
-        <v>2736063.505655028</v>
+        <v>2848346.500300818</v>
       </c>
       <c r="AE2" t="n">
-        <v>3743602.795040249</v>
+        <v>3897233.341890744</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.009682321237439e-06</v>
+        <v>1.860271558767213e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.4625</v>
       </c>
       <c r="AH2" t="n">
-        <v>3386318.598460988</v>
+        <v>3525286.861541893</v>
       </c>
     </row>
     <row r="3">
@@ -54110,28 +54110,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1663.952966317997</v>
+        <v>1748.27182123914</v>
       </c>
       <c r="AB3" t="n">
-        <v>2276.69385694025</v>
+        <v>2392.062634128702</v>
       </c>
       <c r="AC3" t="n">
-        <v>2059.409390593769</v>
+        <v>2163.76753360845</v>
       </c>
       <c r="AD3" t="n">
-        <v>1663952.966317997</v>
+        <v>1748271.82123914</v>
       </c>
       <c r="AE3" t="n">
-        <v>2276693.85694025</v>
+        <v>2392062.634128701</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.337424908771571e-06</v>
+        <v>2.464115165179278e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.95833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2059409.390593769</v>
+        <v>2163767.53360845</v>
       </c>
     </row>
     <row r="4">
@@ -54216,28 +54216,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1431.629909939691</v>
+        <v>1506.655861740326</v>
       </c>
       <c r="AB4" t="n">
-        <v>1958.819201833569</v>
+        <v>2061.47301899859</v>
       </c>
       <c r="AC4" t="n">
-        <v>1771.872246430589</v>
+        <v>1864.728927360917</v>
       </c>
       <c r="AD4" t="n">
-        <v>1431629.909939691</v>
+        <v>1506655.861740326</v>
       </c>
       <c r="AE4" t="n">
-        <v>1958819.201833569</v>
+        <v>2061473.01899859</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.451408130544778e-06</v>
+        <v>2.674121561430211e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.62638888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>1771872.246430589</v>
+        <v>1864728.927360917</v>
       </c>
     </row>
     <row r="5">
@@ -54322,28 +54322,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1325.123666286385</v>
+        <v>1390.771463620493</v>
       </c>
       <c r="AB5" t="n">
-        <v>1813.092660543266</v>
+        <v>1902.914873032208</v>
       </c>
       <c r="AC5" t="n">
-        <v>1640.053641712548</v>
+        <v>1721.303348307811</v>
       </c>
       <c r="AD5" t="n">
-        <v>1325123.666286385</v>
+        <v>1390771.463620492</v>
       </c>
       <c r="AE5" t="n">
-        <v>1813092.660543266</v>
+        <v>1902914.873032208</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.508726340920702e-06</v>
+        <v>2.779726497080751e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.03194444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>1640053.641712548</v>
+        <v>1721303.348307811</v>
       </c>
     </row>
     <row r="6">
@@ -54428,28 +54428,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1244.052072146746</v>
+        <v>1318.99268309281</v>
       </c>
       <c r="AB6" t="n">
-        <v>1702.166928815104</v>
+        <v>1804.703978857927</v>
       </c>
       <c r="AC6" t="n">
-        <v>1539.714506135279</v>
+        <v>1632.465564033669</v>
       </c>
       <c r="AD6" t="n">
-        <v>1244052.072146747</v>
+        <v>1318992.68309281</v>
       </c>
       <c r="AE6" t="n">
-        <v>1702166.928815105</v>
+        <v>1804703.978857927</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.544978884235389e-06</v>
+        <v>2.846519362363999e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.68055555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>1539714.506135279</v>
+        <v>1632465.564033669</v>
       </c>
     </row>
     <row r="7">
@@ -54534,28 +54534,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1190.887509759124</v>
+        <v>1256.449966238659</v>
       </c>
       <c r="AB7" t="n">
-        <v>1629.424829101401</v>
+        <v>1719.130274468144</v>
       </c>
       <c r="AC7" t="n">
-        <v>1473.914810324073</v>
+        <v>1555.058893887398</v>
       </c>
       <c r="AD7" t="n">
-        <v>1190887.509759124</v>
+        <v>1256449.966238659</v>
       </c>
       <c r="AE7" t="n">
-        <v>1629424.829101401</v>
+        <v>1719130.274468144</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.568820646955859e-06</v>
+        <v>2.890446201694423e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.45694444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>1473914.810324073</v>
+        <v>1555058.893887398</v>
       </c>
     </row>
     <row r="8">
@@ -54640,28 +54640,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1145.70359335491</v>
+        <v>1211.266049834446</v>
       </c>
       <c r="AB8" t="n">
-        <v>1567.602201303449</v>
+        <v>1657.307646670193</v>
       </c>
       <c r="AC8" t="n">
-        <v>1417.992447354555</v>
+        <v>1499.13653091788</v>
       </c>
       <c r="AD8" t="n">
-        <v>1145703.59335491</v>
+        <v>1211266.049834446</v>
       </c>
       <c r="AE8" t="n">
-        <v>1567602.201303449</v>
+        <v>1657307.646670193</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.585967120145238e-06</v>
+        <v>2.922037421760824e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.30138888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>1417992.447354555</v>
+        <v>1499136.53091788</v>
       </c>
     </row>
     <row r="9">
@@ -54746,28 +54746,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1144.283254309292</v>
+        <v>1209.845710788827</v>
       </c>
       <c r="AB9" t="n">
-        <v>1565.658830760298</v>
+        <v>1655.364276127041</v>
       </c>
       <c r="AC9" t="n">
-        <v>1416.234549368504</v>
+        <v>1497.378632931829</v>
       </c>
       <c r="AD9" t="n">
-        <v>1144283.254309291</v>
+        <v>1209845.710788827</v>
       </c>
       <c r="AE9" t="n">
-        <v>1565658.830760298</v>
+        <v>1655364.276127041</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.587600117591846e-06</v>
+        <v>2.925046109386196e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.28611111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>1416234.549368504</v>
+        <v>1497378.632931829</v>
       </c>
     </row>
   </sheetData>
@@ -55043,28 +55043,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3955.900358927145</v>
+        <v>4091.722376590634</v>
       </c>
       <c r="AB2" t="n">
-        <v>5412.637393091119</v>
+        <v>5598.475069702838</v>
       </c>
       <c r="AC2" t="n">
-        <v>4896.062876978591</v>
+        <v>5064.164466559298</v>
       </c>
       <c r="AD2" t="n">
-        <v>3955900.358927145</v>
+        <v>4091722.376590634</v>
       </c>
       <c r="AE2" t="n">
-        <v>5412637.393091119</v>
+        <v>5598475.069702839</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.400406281765483e-07</v>
+        <v>1.500671277516747e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.99444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>4896062.876978591</v>
+        <v>5064164.466559298</v>
       </c>
     </row>
     <row r="3">
@@ -55149,28 +55149,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2117.350960292465</v>
+        <v>2204.689587114568</v>
       </c>
       <c r="AB3" t="n">
-        <v>2897.052994803905</v>
+        <v>3016.553557130356</v>
       </c>
       <c r="AC3" t="n">
-        <v>2620.562323019235</v>
+        <v>2728.657919397229</v>
       </c>
       <c r="AD3" t="n">
-        <v>2117350.960292465</v>
+        <v>2204689.587114568</v>
       </c>
       <c r="AE3" t="n">
-        <v>2897052.994803905</v>
+        <v>3016553.557130356</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.208413301172553e-06</v>
+        <v>2.158742174619823e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.06944444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>2620562.323019235</v>
+        <v>2728657.919397229</v>
       </c>
     </row>
     <row r="4">
@@ -55255,28 +55255,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1767.86256485372</v>
+        <v>1845.487427434918</v>
       </c>
       <c r="AB4" t="n">
-        <v>2418.867553824779</v>
+        <v>2525.077315375618</v>
       </c>
       <c r="AC4" t="n">
-        <v>2188.014229389676</v>
+        <v>2284.087480364439</v>
       </c>
       <c r="AD4" t="n">
-        <v>1767862.564853719</v>
+        <v>1845487.427434918</v>
       </c>
       <c r="AE4" t="n">
-        <v>2418867.553824779</v>
+        <v>2525077.315375618</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.339536992712744e-06</v>
+        <v>2.392985080374823e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.3</v>
       </c>
       <c r="AH4" t="n">
-        <v>2188014.229389675</v>
+        <v>2284087.480364439</v>
       </c>
     </row>
     <row r="5">
@@ -55361,28 +55361,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1611.909890479545</v>
+        <v>1689.620004406764</v>
       </c>
       <c r="AB5" t="n">
-        <v>2205.486224599616</v>
+        <v>2311.812630803105</v>
       </c>
       <c r="AC5" t="n">
-        <v>1994.997714743186</v>
+        <v>2091.176477968661</v>
       </c>
       <c r="AD5" t="n">
-        <v>1611909.890479545</v>
+        <v>1689620.004406764</v>
       </c>
       <c r="AE5" t="n">
-        <v>2205486.224599617</v>
+        <v>2311812.630803104</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.407299955607016e-06</v>
+        <v>2.51403866836092e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.51666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1994997.714743186</v>
+        <v>2091176.477968661</v>
       </c>
     </row>
     <row r="6">
@@ -55467,28 +55467,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1525.735012535227</v>
+        <v>1593.731451730095</v>
       </c>
       <c r="AB6" t="n">
-        <v>2087.577954828902</v>
+        <v>2180.613682726502</v>
       </c>
       <c r="AC6" t="n">
-        <v>1888.342444754092</v>
+        <v>1972.49897335761</v>
       </c>
       <c r="AD6" t="n">
-        <v>1525735.012535227</v>
+        <v>1593731.451730095</v>
       </c>
       <c r="AE6" t="n">
-        <v>2087577.954828902</v>
+        <v>2180613.682726502</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.448649513011177e-06</v>
+        <v>2.587906635043852e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.075</v>
       </c>
       <c r="AH6" t="n">
-        <v>1888342.444754092</v>
+        <v>1972498.97335761</v>
       </c>
     </row>
     <row r="7">
@@ -55573,28 +55573,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1454.701592054367</v>
+        <v>1532.326365127014</v>
       </c>
       <c r="AB7" t="n">
-        <v>1990.386895153647</v>
+        <v>2096.596534234938</v>
       </c>
       <c r="AC7" t="n">
-        <v>1800.427163405735</v>
+        <v>1896.500303599272</v>
       </c>
       <c r="AD7" t="n">
-        <v>1454701.592054367</v>
+        <v>1532326.365127014</v>
       </c>
       <c r="AE7" t="n">
-        <v>1990386.895153647</v>
+        <v>2096596.534234938</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.476320699715102e-06</v>
+        <v>2.637339190694787e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.79027777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>1800427.163405735</v>
+        <v>1896500.303599272</v>
       </c>
     </row>
     <row r="8">
@@ -55679,28 +55679,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1407.522951466549</v>
+        <v>1485.147724539197</v>
       </c>
       <c r="AB8" t="n">
-        <v>1925.834997726669</v>
+        <v>2032.04463680796</v>
       </c>
       <c r="AC8" t="n">
-        <v>1742.036008470031</v>
+        <v>1838.109148663568</v>
       </c>
       <c r="AD8" t="n">
-        <v>1407522.951466549</v>
+        <v>1485147.724539197</v>
       </c>
       <c r="AE8" t="n">
-        <v>1925834.997726669</v>
+        <v>2032044.63680796</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.496445199136138e-06</v>
+        <v>2.673290140259105e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.59305555555555</v>
       </c>
       <c r="AH8" t="n">
-        <v>1742036.008470031</v>
+        <v>1838109.148663568</v>
       </c>
     </row>
     <row r="9">
@@ -55785,28 +55785,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1367.313147081628</v>
+        <v>1435.224245421924</v>
       </c>
       <c r="AB9" t="n">
-        <v>1870.818169435849</v>
+        <v>1963.737130211252</v>
       </c>
       <c r="AC9" t="n">
-        <v>1692.269909054683</v>
+        <v>1776.320814626262</v>
       </c>
       <c r="AD9" t="n">
-        <v>1367313.147081628</v>
+        <v>1435224.245421924</v>
       </c>
       <c r="AE9" t="n">
-        <v>1870818.169435849</v>
+        <v>1963737.130211252</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.512167464308823e-06</v>
+        <v>2.701376819606227e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.44166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1692269.909054683</v>
+        <v>1776320.814626262</v>
       </c>
     </row>
     <row r="10">
@@ -55891,28 +55891,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1331.530403628343</v>
+        <v>1399.44150196864</v>
       </c>
       <c r="AB10" t="n">
-        <v>1821.858641219837</v>
+        <v>1914.77760199524</v>
       </c>
       <c r="AC10" t="n">
-        <v>1647.983009496478</v>
+        <v>1732.033915068056</v>
       </c>
       <c r="AD10" t="n">
-        <v>1331530.403628343</v>
+        <v>1399441.50196864</v>
       </c>
       <c r="AE10" t="n">
-        <v>1821858.641219837</v>
+        <v>1914777.60199524</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.52427360849179e-06</v>
+        <v>2.723003562703511e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.32638888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>1647983.009496477</v>
+        <v>1732033.915068056</v>
       </c>
     </row>
     <row r="11">
@@ -55997,28 +55997,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1298.721515558417</v>
+        <v>1366.632613898713</v>
       </c>
       <c r="AB11" t="n">
-        <v>1776.968073136576</v>
+        <v>1869.887033911979</v>
       </c>
       <c r="AC11" t="n">
-        <v>1607.376734226775</v>
+        <v>1691.427639798354</v>
       </c>
       <c r="AD11" t="n">
-        <v>1298721.515558417</v>
+        <v>1366632.613898713</v>
       </c>
       <c r="AE11" t="n">
-        <v>1776968.073136576</v>
+        <v>1869887.033911979</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.534178635550582e-06</v>
+        <v>2.740698170692198e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.23333333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1607376.734226775</v>
+        <v>1691427.639798354</v>
       </c>
     </row>
     <row r="12">
@@ -56103,28 +56103,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1273.502720434248</v>
+        <v>1341.413818774544</v>
       </c>
       <c r="AB12" t="n">
-        <v>1742.462605072969</v>
+        <v>1835.381565848372</v>
       </c>
       <c r="AC12" t="n">
-        <v>1576.16441960643</v>
+        <v>1660.215325178009</v>
       </c>
       <c r="AD12" t="n">
-        <v>1273502.720434248</v>
+        <v>1341413.818774544</v>
       </c>
       <c r="AE12" t="n">
-        <v>1742462.605072969</v>
+        <v>1835381.565848371</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.541410877530017e-06</v>
+        <v>2.753618043191875e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.16666666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1576164.41960643</v>
+        <v>1660215.325178009</v>
       </c>
     </row>
     <row r="13">
@@ -56209,28 +56209,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1276.425785830308</v>
+        <v>1344.336884170604</v>
       </c>
       <c r="AB13" t="n">
-        <v>1746.462072104402</v>
+        <v>1839.381032879805</v>
       </c>
       <c r="AC13" t="n">
-        <v>1579.78218311767</v>
+        <v>1663.83308868925</v>
       </c>
       <c r="AD13" t="n">
-        <v>1276425.785830308</v>
+        <v>1344336.884170604</v>
       </c>
       <c r="AE13" t="n">
-        <v>1746462.072104402</v>
+        <v>1839381.032879805</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.541410877530017e-06</v>
+        <v>2.753618043191875e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.16666666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>1579782.18311767</v>
+        <v>1663833.088689249</v>
       </c>
     </row>
   </sheetData>
